--- a/2023/poland_iii-liga-group-iii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Rakow II</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>19/08/2023 09:24</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
         <v>1.88</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>18/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1.86</v>
-      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.49</v>
+        <v>3.28</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.13</v>
+        <v>2.48</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.38</v>
+        <v>3.33</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-rks-rakow-czestochowa/f5paW59s/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/karkonosze-jelenia-gora-zielona-gora/hdbXzn1Q/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Jelenia Gora</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.48</v>
+        <v>2.11</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.88</v>
+        <v>2.47</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:55</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.28</v>
+        <v>3.36</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.67</v>
+        <v>3.6</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:55</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.48</v>
+        <v>2.65</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.33</v>
+        <v>2.37</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:55</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/karkonosze-jelenia-gora-zielona-gora/hdbXzn1Q/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-pniowek-pawlowice/Ovk3VPOm/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Rakow II</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.11</v>
+        <v>1.88</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.47</v>
+        <v>1.86</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:55</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.36</v>
+        <v>3.49</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.6</v>
+        <v>3.66</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:55</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.65</v>
+        <v>3.13</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.37</v>
+        <v>3.38</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:55</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-pniowek-pawlowice/Ovk3VPOm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-rks-rakow-czestochowa/f5paW59s/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.47</v>
+        <v>2.05</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.32</v>
+        <v>3.21</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.68</v>
+        <v>3.55</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.31</v>
+        <v>2.5</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.34</v>
+        <v>2.97</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J70" t="n">
-        <v>1.91</v>
+        <v>2.43</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.72</v>
+        <v>2.47</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.45</v>
+        <v>3.32</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.9</v>
+        <v>3.68</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3</v>
+        <v>2.31</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.74</v>
+        <v>2.34</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-gornik-zabrze/vD8ZQ4Yf/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.21</v>
+        <v>3.45</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.97</v>
+        <v>3.74</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-gornik-zabrze/vD8ZQ4Yf/</t>
         </is>
       </c>
     </row>
@@ -7262,6 +7262,650 @@
       <c r="V74" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-gwarek-tarnowskie-gory/dlJURpJl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45206.45833333334</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze II</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>4</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Rakow II</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>05/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:59</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>05/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:59</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>05/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>07/10/2023 10:59</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-rks-rakow-czestochowa/CrhT72kU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45206.5</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Bytom Odrzanski</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Stilon Gorzow</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>05/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:08</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>05/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:08</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>05/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:08</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-stilon-gorzow/GGbK9OKH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45206.54166666666</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Goczalkowice Zdroj</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>5</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Jelenia Gora</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:06</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:06</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>07/10/2023 01:43</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:06</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-karkonosze-jelenia-gora/xQaGA45B/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45206.54166666666</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Bielsko-Biala</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>4</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:39</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:39</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:39</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-rekord-bielsko-biala/8jeCBpj5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Gwarek Tarnowskie Gory</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Pawlowice</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-pniowek-pawlowice/l4TYSoLu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Polkowice</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw II</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:42</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-slask-wroclaw/SfSxS5zn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45206.64583333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sleza Wroclaw</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Kluczbork</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-kluczbork/ny73D6Lh/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Slask Wroclaw II</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.49</v>
+        <v>1.79</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:54</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.27</v>
+        <v>3.62</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.19</v>
+        <v>3.86</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:34</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>4.57</v>
+        <v>3.48</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.18</v>
+        <v>4.14</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:54</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-starowice-dolne/G06MInur/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-carina-gubin/2H8YFpP0/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Slask Wroclaw II</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Carina Gubin</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.79</v>
+        <v>1.49</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:54</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.62</v>
+        <v>4.27</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.86</v>
+        <v>4.19</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:34</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.48</v>
+        <v>4.57</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>4.14</v>
+        <v>3.18</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:54</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-carina-gubin/2H8YFpP0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-starowice-dolne/G06MInur/</t>
         </is>
       </c>
     </row>
@@ -1769,30 +1769,30 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.29</v>
+        <v>2.22</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>19/08/2023 09:23</t>
+          <t>18/08/2023 03:13</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1800,31 +1800,31 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.66</v>
+        <v>3.28</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>19/08/2023 09:23</t>
+          <t>18/08/2023 03:13</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 14:27</t>
+          <t>19/08/2023 14:53</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.87</v>
+        <v>2.55</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>19/08/2023 09:23</t>
+          <t>18/08/2023 03:13</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.01</v>
+        <v>2.68</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-gwarek-tarnowskie-gory/bcsGSN86/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-gornik-zabrze/hKtKRsOC/</t>
         </is>
       </c>
     </row>
@@ -1861,30 +1861,30 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.22</v>
+        <v>3.29</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>18/08/2023 03:13</t>
+          <t>19/08/2023 09:23</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1892,40 +1892,40 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.28</v>
+        <v>3.66</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>18/08/2023 03:13</t>
+          <t>19/08/2023 09:23</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
+          <t>19/08/2023 14:27</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>19/08/2023 09:23</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
           <t>19/08/2023 14:53</t>
         </is>
       </c>
-      <c r="R16" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>18/08/2023 03:13</t>
-        </is>
-      </c>
-      <c r="T16" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>19/08/2023 14:53</t>
-        </is>
-      </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-gornik-zabrze/hKtKRsOC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-gwarek-tarnowskie-gory/bcsGSN86/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Jelenia Gora</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Rakow II</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.48</v>
+        <v>1.88</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.28</v>
+        <v>3.49</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.48</v>
+        <v>3.13</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.33</v>
+        <v>3.38</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/karkonosze-jelenia-gora-zielona-gora/hdbXzn1Q/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-rks-rakow-czestochowa/f5paW59s/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.11</v>
+        <v>2.48</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.47</v>
+        <v>1.88</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:55</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.36</v>
+        <v>3.28</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.6</v>
+        <v>3.67</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:55</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.65</v>
+        <v>2.48</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.37</v>
+        <v>3.33</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:55</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-pniowek-pawlowice/Ovk3VPOm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/karkonosze-jelenia-gora-zielona-gora/hdbXzn1Q/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rakow II</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.88</v>
+        <v>2.11</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>1.86</v>
+        <v>2.47</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:55</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.49</v>
+        <v>3.36</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:55</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>3.13</v>
+        <v>2.65</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>3.38</v>
+        <v>2.37</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:55</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-rks-rakow-czestochowa/f5paW59s/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-pniowek-pawlowice/Ovk3VPOm/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.99</v>
+        <v>1.71</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:07</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.77</v>
+        <v>4.29</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.93</v>
+        <v>4.53</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.7</v>
+        <v>4.42</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.88</v>
+        <v>3.31</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:07</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-bytom-odrzanski/Agp3l5VP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-starowice-dolne/txyZrqgm/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.29</v>
+        <v>3.38</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.3</v>
+        <v>3.09</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:56</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.06</v>
+        <v>3.18</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-goczalkowice-zdroj/SYWUqPws/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.36</v>
+        <v>1.99</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:57</t>
+          <t>23/08/2023 16:07</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.38</v>
+        <v>3.77</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.09</v>
+        <v>3.93</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:56</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.18</v>
+        <v>3.7</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:57</t>
+          <t>23/08/2023 16:07</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-bytom-odrzanski/Agp3l5VP/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.71</v>
+        <v>2.2</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.29</v>
+        <v>3.29</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.53</v>
+        <v>3.3</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.42</v>
+        <v>3.06</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.31</v>
+        <v>2.88</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-starowice-dolne/txyZrqgm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-goczalkowice-zdroj/SYWUqPws/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.88</v>
+        <v>2.24</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>27/08/2023 16:16</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.57</v>
+        <v>3.38</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>27/08/2023 16:16</t>
+          <t>27/08/2023 15:01</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.22</v>
+        <v>2.71</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.04</v>
+        <v>2.71</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>27/08/2023 16:16</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-goczalkowice-zdroj/OKhPg075/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-pniowek-pawlowice/GfkHeMxg/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>2.24</v>
+        <v>1.88</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,48 +3724,48 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>27/08/2023 16:16</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>27/08/2023 12:42</t>
         </is>
       </c>
-      <c r="N36" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O36" t="inlineStr">
+      <c r="P36" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>27/08/2023 16:16</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S36" t="inlineStr">
         <is>
           <t>27/08/2023 12:42</t>
         </is>
       </c>
-      <c r="P36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>27/08/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R36" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>27/08/2023 12:42</t>
-        </is>
-      </c>
       <c r="T36" t="n">
-        <v>2.71</v>
+        <v>3.04</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 16:16</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-pniowek-pawlowice/GfkHeMxg/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-goczalkowice-zdroj/OKhPg075/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.88</v>
+        <v>2.54</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>02/09/2023 16:58</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.71</v>
+        <v>3.29</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.74</v>
+        <v>3.46</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>02/09/2023 15:02</t>
+          <t>02/09/2023 16:58</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.23</v>
+        <v>2.26</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.23</v>
+        <v>2.37</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>02/09/2023 16:58</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-starowice-dolne/Q50edgT3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-carina-gubin/0Oh8giDM/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.74</v>
+        <v>2.38</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.97</v>
+        <v>2.56</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 15:47</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.5</v>
+        <v>3.33</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 15:47</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.55</v>
+        <v>2.35</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.19</v>
+        <v>2.41</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 15:47</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-warta-gorzow/GzJ4ZVLj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-sleza-wroclaw/MXg4fXcG/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>2.5</v>
+        <v>1.74</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.54</v>
+        <v>1.97</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:58</t>
+          <t>02/09/2023 15:47</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.29</v>
+        <v>3.44</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.46</v>
+        <v>3.5</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:58</t>
+          <t>02/09/2023 15:47</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.26</v>
+        <v>3.55</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.37</v>
+        <v>3.19</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:58</t>
+          <t>02/09/2023 15:47</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-carina-gubin/0Oh8giDM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-warta-gorzow/GzJ4ZVLj/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.38</v>
+        <v>1.88</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.56</v>
+        <v>1.88</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.32</v>
+        <v>3.71</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.33</v>
+        <v>3.74</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 15:02</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.35</v>
+        <v>3.23</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.41</v>
+        <v>3.23</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-sleza-wroclaw/MXg4fXcG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-starowice-dolne/Q50edgT3/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J69" t="n">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.05</v>
+        <v>2.47</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.21</v>
+        <v>3.32</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.55</v>
+        <v>3.68</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.97</v>
+        <v>2.34</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>2.43</v>
+        <v>1.91</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.47</v>
+        <v>1.72</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.32</v>
+        <v>3.45</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.68</v>
+        <v>3.9</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.31</v>
+        <v>3</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.34</v>
+        <v>3.74</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-gornik-zabrze/vD8ZQ4Yf/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.72</v>
+        <v>2.05</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.45</v>
+        <v>3.21</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.74</v>
+        <v>2.97</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-gornik-zabrze/vD8ZQ4Yf/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
         </is>
       </c>
     </row>
@@ -7906,6 +7906,374 @@
       <c r="V81" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-kluczbork/ny73D6Lh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sleza Wroclaw</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Unia Turza Slaska</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>4</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:43</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:43</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>14/10/2023 09:43</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-unia-turza-slaska/zyK8uP4o/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Carina Gubin</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-starowice-dolne/YVuQGuSp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Pawlowice</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Polkowice</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>5</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:40</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:40</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:40</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-polkowice/Y7cwQq5b/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Stilon Gorzow</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Warta Gorzow</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-warta-gorzow/OdjjNskH/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V85"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Slask Wroclaw II</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>2</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Carina Gubin</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
       <c r="J12" t="n">
-        <v>1.79</v>
+        <v>1.49</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:54</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.62</v>
+        <v>4.27</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.86</v>
+        <v>4.19</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:34</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.48</v>
+        <v>4.57</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>4.14</v>
+        <v>3.18</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:54</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-carina-gubin/2H8YFpP0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-starowice-dolne/G06MInur/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Slask Wroclaw II</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.49</v>
+        <v>1.79</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:54</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.27</v>
+        <v>3.62</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.19</v>
+        <v>3.86</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:34</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.57</v>
+        <v>3.48</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.18</v>
+        <v>4.14</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:54</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-starowice-dolne/G06MInur/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-carina-gubin/2H8YFpP0/</t>
         </is>
       </c>
     </row>
@@ -1769,30 +1769,30 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.22</v>
+        <v>3.29</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>18/08/2023 03:13</t>
+          <t>19/08/2023 09:23</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1800,40 +1800,40 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.28</v>
+        <v>3.66</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>18/08/2023 03:13</t>
+          <t>19/08/2023 09:23</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
+          <t>19/08/2023 14:27</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>19/08/2023 09:23</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
           <t>19/08/2023 14:53</t>
         </is>
       </c>
-      <c r="R15" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>18/08/2023 03:13</t>
-        </is>
-      </c>
-      <c r="T15" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>19/08/2023 14:53</t>
-        </is>
-      </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-gornik-zabrze/hKtKRsOC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-gwarek-tarnowskie-gory/bcsGSN86/</t>
         </is>
       </c>
     </row>
@@ -1861,30 +1861,30 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.29</v>
+        <v>2.22</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>19/08/2023 09:23</t>
+          <t>18/08/2023 03:13</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1892,31 +1892,31 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.66</v>
+        <v>3.28</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>19/08/2023 09:23</t>
+          <t>18/08/2023 03:13</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19/08/2023 14:27</t>
+          <t>19/08/2023 14:53</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.87</v>
+        <v>2.55</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>19/08/2023 09:23</t>
+          <t>18/08/2023 03:13</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.01</v>
+        <v>2.68</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-gwarek-tarnowskie-gory/bcsGSN86/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-gornik-zabrze/hKtKRsOC/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Rakow II</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.4</v>
+        <v>1.88</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.02</v>
+        <v>1.86</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2180,11 +2180,11 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>19/08/2023 16:50</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.34</v>
+        <v>3.13</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.94</v>
+        <v>3.38</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-kluczbork/AX8SySoK/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-rks-rakow-czestochowa/f5paW59s/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Rakow II</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>19/08/2023 09:24</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
         <v>1.88</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>18/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1.86</v>
-      </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.49</v>
+        <v>3.28</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.13</v>
+        <v>2.48</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.38</v>
+        <v>3.33</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-rks-rakow-czestochowa/f5paW59s/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/karkonosze-jelenia-gora-zielona-gora/hdbXzn1Q/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Jelenia Gora</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.48</v>
+        <v>2.11</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.88</v>
+        <v>2.47</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:55</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.28</v>
+        <v>3.36</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.67</v>
+        <v>3.6</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:55</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.48</v>
+        <v>2.65</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.33</v>
+        <v>2.37</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:55</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/karkonosze-jelenia-gora-zielona-gora/hdbXzn1Q/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-pniowek-pawlowice/Ovk3VPOm/</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -2421,14 +2421,14 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.11</v>
+        <v>2.4</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.47</v>
+        <v>3.02</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:55</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.36</v>
+        <v>3.3</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.6</v>
+        <v>3.66</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:55</t>
+          <t>19/08/2023 16:50</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.65</v>
+        <v>2.34</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.37</v>
+        <v>1.94</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:55</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-pniowek-pawlowice/Ovk3VPOm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-kluczbork/AX8SySoK/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.71</v>
+        <v>1.99</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:07</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.29</v>
+        <v>3.77</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.53</v>
+        <v>3.93</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>4.42</v>
+        <v>3.7</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.31</v>
+        <v>2.88</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:07</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-starowice-dolne/txyZrqgm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-bytom-odrzanski/Agp3l5VP/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:57</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.09</v>
+        <v>3.3</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:56</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.18</v>
+        <v>3.06</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:57</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-goczalkowice-zdroj/SYWUqPws/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.99</v>
+        <v>2.36</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:07</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.77</v>
+        <v>3.38</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.93</v>
+        <v>3.09</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:56</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.7</v>
+        <v>3.18</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:07</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-bytom-odrzanski/Agp3l5VP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.2</v>
+        <v>1.71</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.29</v>
+        <v>4.29</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.3</v>
+        <v>4.53</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.06</v>
+        <v>4.42</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.88</v>
+        <v>3.31</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-goczalkowice-zdroj/SYWUqPws/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-starowice-dolne/txyZrqgm/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>2.24</v>
+        <v>1.88</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,48 +3632,48 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>27/08/2023 16:16</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
           <t>27/08/2023 12:42</t>
         </is>
       </c>
-      <c r="N35" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O35" t="inlineStr">
+      <c r="P35" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>27/08/2023 16:16</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S35" t="inlineStr">
         <is>
           <t>27/08/2023 12:42</t>
         </is>
       </c>
-      <c r="P35" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>27/08/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>27/08/2023 12:42</t>
-        </is>
-      </c>
       <c r="T35" t="n">
-        <v>2.71</v>
+        <v>3.04</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 16:16</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-pniowek-pawlowice/GfkHeMxg/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-goczalkowice-zdroj/OKhPg075/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>1.88</v>
+        <v>2.24</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>27/08/2023 16:16</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.57</v>
+        <v>3.38</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>27/08/2023 16:16</t>
+          <t>27/08/2023 15:01</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.22</v>
+        <v>2.71</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.04</v>
+        <v>2.71</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>27/08/2023 16:16</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-goczalkowice-zdroj/OKhPg075/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-pniowek-pawlowice/GfkHeMxg/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Carina Gubin</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
       <c r="J41" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.54</v>
+        <v>1.88</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>02/09/2023 16:58</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.29</v>
+        <v>3.71</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.46</v>
+        <v>3.74</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>02/09/2023 16:58</t>
+          <t>02/09/2023 15:02</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.26</v>
+        <v>3.23</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.37</v>
+        <v>3.23</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>02/09/2023 16:58</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-carina-gubin/0Oh8giDM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-starowice-dolne/Q50edgT3/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>2.38</v>
+        <v>1.74</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.56</v>
+        <v>1.97</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 15:47</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 15:47</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>2.35</v>
+        <v>3.55</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.41</v>
+        <v>3.19</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 15:47</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-sleza-wroclaw/MXg4fXcG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-warta-gorzow/GzJ4ZVLj/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.74</v>
+        <v>2.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.97</v>
+        <v>2.54</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 15:47</t>
+          <t>02/09/2023 16:58</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.44</v>
+        <v>3.29</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 15:47</t>
+          <t>02/09/2023 16:58</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.55</v>
+        <v>2.26</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.19</v>
+        <v>2.37</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 15:47</t>
+          <t>02/09/2023 16:58</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-warta-gorzow/GzJ4ZVLj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-carina-gubin/0Oh8giDM/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.88</v>
+        <v>2.38</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.88</v>
+        <v>2.56</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.71</v>
+        <v>3.32</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.74</v>
+        <v>3.33</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 15:02</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.23</v>
+        <v>2.35</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.23</v>
+        <v>2.41</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-starowice-dolne/Q50edgT3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-sleza-wroclaw/MXg4fXcG/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,22 +7941,22 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.59</v>
+        <v>2.01</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.57</v>
+        <v>2.01</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7964,15 +7964,15 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.96</v>
+        <v>3.33</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.22</v>
+        <v>3.63</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -7980,15 +7980,15 @@
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.14</v>
+        <v>2.95</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.28</v>
+        <v>3.01</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-unia-turza-slaska/zyK8uP4o/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-warta-gorzow/OdjjNskH/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,22 +8217,22 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>2.01</v>
+        <v>1.59</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.01</v>
+        <v>1.57</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -8240,15 +8240,15 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.33</v>
+        <v>3.96</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.63</v>
+        <v>4.22</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -8256,15 +8256,15 @@
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.95</v>
+        <v>4.14</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.01</v>
+        <v>4.28</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
@@ -8273,7 +8273,99 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-warta-gorzow/OdjjNskH/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-unia-turza-slaska/zyK8uP4o/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45213.70833333334</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Kluczbork</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>3</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw II</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>13/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>14/10/2023 16:46</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>13/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>14/10/2023 16:46</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>13/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>14/10/2023 16:46</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-slask-wroclaw/fHbZQPkh/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,58 +2045,58 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>4.37</v>
+        <v>2.4</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.99</v>
+        <v>3.02</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19/08/2023 16:44</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.94</v>
+        <v>3.3</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.29</v>
+        <v>3.66</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>19/08/2023 16:44</t>
+          <t>19/08/2023 16:50</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.58</v>
+        <v>2.34</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="T18" t="n">
@@ -2104,12 +2104,12 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>19/08/2023 16:44</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-polkowice/pfwCT3g0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-kluczbork/AX8SySoK/</t>
         </is>
       </c>
     </row>
@@ -2413,58 +2413,58 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.4</v>
+        <v>4.37</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:44</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.3</v>
+        <v>3.94</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.66</v>
+        <v>3.29</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:50</t>
+          <t>19/08/2023 16:44</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.34</v>
+        <v>1.58</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="T22" t="n">
@@ -2472,12 +2472,12 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:44</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-kluczbork/AX8SySoK/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-polkowice/pfwCT3g0/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.47</v>
+        <v>2.05</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.32</v>
+        <v>3.21</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.68</v>
+        <v>3.55</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.31</v>
+        <v>2.5</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.34</v>
+        <v>2.97</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J72" t="n">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.05</v>
+        <v>2.47</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.21</v>
+        <v>3.32</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.55</v>
+        <v>3.68</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.97</v>
+        <v>2.34</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Jelenia Gora</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>1.88</v>
+        <v>3.95</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.25</v>
+        <v>4.67</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.52</v>
+        <v>3.77</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.2</v>
+        <v>4.04</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.26</v>
+        <v>1.58</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.88</v>
+        <v>1.55</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-karkonosze-jelenia-gora/xQaGA45B/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-rekord-bielsko-biala/8jeCBpj5/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>3.95</v>
+        <v>1.88</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>4.67</v>
+        <v>2.25</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.77</v>
+        <v>3.52</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.04</v>
+        <v>3.2</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>1.58</v>
+        <v>3.26</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1.55</v>
+        <v>2.88</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-rekord-bielsko-biala/8jeCBpj5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-karkonosze-jelenia-gora/xQaGA45B/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Warta Gorzow</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
-      </c>
       <c r="J82" t="n">
-        <v>2.01</v>
+        <v>1.6</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,48 +7956,48 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.01</v>
+        <v>1.56</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
+          <t>14/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
           <t>14/10/2023 14:59</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="O82" t="inlineStr">
+      <c r="R82" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S82" t="inlineStr">
         <is>
           <t>13/10/2023 02:13</t>
         </is>
       </c>
-      <c r="P82" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="Q82" t="inlineStr">
+      <c r="T82" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="U82" t="inlineStr">
         <is>
           <t>14/10/2023 14:59</t>
         </is>
       </c>
-      <c r="R82" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>13/10/2023 02:13</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>14/10/2023 14:59</t>
-        </is>
-      </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-warta-gorzow/OdjjNskH/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-starowice-dolne/YVuQGuSp/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J83" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.56</v>
+        <v>3.1</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.77</v>
+        <v>3.4</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.36</v>
+        <v>3.6</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.87</v>
+        <v>2.99</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.21</v>
+        <v>1.98</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-starowice-dolne/YVuQGuSp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-polkowice/Y7cwQq5b/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>1.93</v>
+        <v>1.59</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.1</v>
+        <v>1.57</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.4</v>
+        <v>3.96</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.6</v>
+        <v>4.22</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.99</v>
+        <v>4.14</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.98</v>
+        <v>4.28</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-polkowice/Y7cwQq5b/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-unia-turza-slaska/zyK8uP4o/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,22 +8217,22 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>1.59</v>
+        <v>2.01</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.57</v>
+        <v>2.01</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
@@ -8240,15 +8240,15 @@
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.96</v>
+        <v>3.33</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.22</v>
+        <v>3.63</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
@@ -8256,15 +8256,15 @@
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.14</v>
+        <v>2.95</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.28</v>
+        <v>3.01</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-unia-turza-slaska/zyK8uP4o/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-warta-gorzow/OdjjNskH/</t>
         </is>
       </c>
     </row>
@@ -8366,6 +8366,190 @@
       <c r="V86" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-slask-wroclaw/fHbZQPkh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45214.47916666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bielsko-Biala</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Goczalkowice Zdroj</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>13/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:28</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>13/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:28</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>13/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:28</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-goczalkowice-zdroj/WMgbLLJT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45214.5</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Rakow II</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Gwarek Tarnowskie Gory</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>13/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:48</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>13/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:45</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>13/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>15/10/2023 11:48</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rks-rakow-czestochowa-gwarek-tarnowskie-gory/SUdsP3K4/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Slask Wroclaw II</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.49</v>
+        <v>1.79</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:54</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.27</v>
+        <v>3.62</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.19</v>
+        <v>3.86</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:34</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>4.57</v>
+        <v>3.48</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.18</v>
+        <v>4.14</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:54</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-starowice-dolne/G06MInur/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-carina-gubin/2H8YFpP0/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Slask Wroclaw II</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Carina Gubin</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.79</v>
+        <v>1.49</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:54</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.62</v>
+        <v>4.27</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.86</v>
+        <v>4.19</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:34</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.48</v>
+        <v>4.57</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>4.14</v>
+        <v>3.18</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:54</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-carina-gubin/2H8YFpP0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-starowice-dolne/G06MInur/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.02</v>
+        <v>1.88</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>19/08/2023 16:50</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.94</v>
+        <v>3.33</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-kluczbork/AX8SySoK/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/karkonosze-jelenia-gora-zielona-gora/hdbXzn1Q/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,63 +2145,63 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rakow II</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.88</v>
+        <v>4.37</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.86</v>
+        <v>2.99</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:44</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.49</v>
+        <v>3.94</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.66</v>
+        <v>3.29</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:44</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.13</v>
+        <v>1.58</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.38</v>
+        <v>1.94</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:44</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-rks-rakow-czestochowa/f5paW59s/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-polkowice/pfwCT3g0/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Jelenia Gora</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.88</v>
+        <v>3.02</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:50</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.33</v>
+        <v>1.94</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/karkonosze-jelenia-gora-zielona-gora/hdbXzn1Q/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-kluczbork/AX8SySoK/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Rakow II</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.11</v>
+        <v>1.88</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.47</v>
+        <v>1.86</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:55</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.36</v>
+        <v>3.49</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.6</v>
+        <v>3.66</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:55</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.65</v>
+        <v>3.13</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.37</v>
+        <v>3.38</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:55</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-pniowek-pawlowice/Ovk3VPOm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-rks-rakow-czestochowa/f5paW59s/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.37</v>
+        <v>2.11</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.99</v>
+        <v>2.47</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:44</t>
+          <t>19/08/2023 16:55</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.94</v>
+        <v>3.36</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.29</v>
+        <v>3.6</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:44</t>
+          <t>19/08/2023 16:55</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1.58</v>
+        <v>2.65</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.94</v>
+        <v>2.37</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:44</t>
+          <t>19/08/2023 16:55</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-polkowice/pfwCT3g0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-pniowek-pawlowice/Ovk3VPOm/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Warta Gorzow</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Bielsko-Biala</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>2</v>
-      </c>
       <c r="J25" t="n">
-        <v>3.46</v>
+        <v>1.85</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3.43</v>
+        <v>2.36</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>23/08/2023 16:52</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.57</v>
+        <v>3.38</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.64</v>
+        <v>3.09</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>23/08/2023 16:52</t>
+          <t>23/08/2023 16:56</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>1.72</v>
+        <v>3.18</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>23/08/2023 16:52</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-rekord-bielsko-biala/AHSku1hC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.99</v>
+        <v>1.71</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:07</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.77</v>
+        <v>4.29</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.93</v>
+        <v>4.53</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.7</v>
+        <v>4.42</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.88</v>
+        <v>3.31</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:07</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-bytom-odrzanski/Agp3l5VP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-starowice-dolne/txyZrqgm/</t>
         </is>
       </c>
     </row>
@@ -2873,58 +2873,58 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.2</v>
+        <v>1.99</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
+          <t>23/08/2023 16:07</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>23/08/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
           <t>23/08/2023 16:06</t>
         </is>
       </c>
-      <c r="N27" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>22/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="P27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>23/08/2023 16:06</t>
-        </is>
-      </c>
       <c r="R27" t="n">
-        <v>3.06</v>
+        <v>3.7</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T27" t="n">
@@ -2932,12 +2932,12 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:07</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-goczalkowice-zdroj/SYWUqPws/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-bytom-odrzanski/Agp3l5VP/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>22/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>23/08/2023 16:52</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>22/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>23/08/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>22/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
         <v>1.85</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>22/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>23/08/2023 16:57</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>22/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>23/08/2023 16:56</t>
-        </is>
-      </c>
-      <c r="R28" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>22/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="T28" t="n">
-        <v>2.8</v>
-      </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:57</t>
+          <t>23/08/2023 16:52</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-rekord-bielsko-biala/AHSku1hC/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.71</v>
+        <v>2.2</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.29</v>
+        <v>3.29</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.53</v>
+        <v>3.3</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.42</v>
+        <v>3.06</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.31</v>
+        <v>2.88</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-starowice-dolne/txyZrqgm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-goczalkowice-zdroj/SYWUqPws/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.88</v>
+        <v>2.24</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>27/08/2023 16:16</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.57</v>
+        <v>3.38</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.28</v>
+        <v>3.4</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>27/08/2023 16:16</t>
+          <t>27/08/2023 15:01</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.22</v>
+        <v>2.71</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.04</v>
+        <v>2.71</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>27/08/2023 16:16</t>
+          <t>27/08/2023 12:42</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-goczalkowice-zdroj/OKhPg075/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-pniowek-pawlowice/GfkHeMxg/</t>
         </is>
       </c>
     </row>
@@ -3701,7 +3701,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G36" t="n">
@@ -3709,14 +3709,14 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>2.24</v>
+        <v>1.88</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,48 +3724,48 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.24</v>
+        <v>2.12</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
+          <t>27/08/2023 16:16</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
           <t>27/08/2023 12:42</t>
         </is>
       </c>
-      <c r="N36" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O36" t="inlineStr">
+      <c r="P36" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>27/08/2023 16:16</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S36" t="inlineStr">
         <is>
           <t>27/08/2023 12:42</t>
         </is>
       </c>
-      <c r="P36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>27/08/2023 15:01</t>
-        </is>
-      </c>
-      <c r="R36" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>27/08/2023 12:42</t>
-        </is>
-      </c>
       <c r="T36" t="n">
-        <v>2.71</v>
+        <v>3.04</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>27/08/2023 12:42</t>
+          <t>27/08/2023 16:16</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-pniowek-pawlowice/GfkHeMxg/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-goczalkowice-zdroj/OKhPg075/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Slask Wroclaw II</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>02/09/2023 15:48</t>
+          <t>02/09/2023 15:37</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.5</v>
+        <v>3.66</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.46</v>
+        <v>3.63</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>02/09/2023 15:48</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.16</v>
+        <v>3.31</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.72</v>
+        <v>2.78</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>02/09/2023 15:48</t>
+          <t>02/09/2023 15:37</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-goczalkowice-zdroj/Wr1icZDc/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-bytom-odrzanski/IucmbFbi/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Slask Wroclaw II</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>02/09/2023 15:37</t>
+          <t>02/09/2023 15:48</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.66</v>
+        <v>3.5</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.63</v>
+        <v>3.46</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:48</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.31</v>
+        <v>3.16</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>2.78</v>
+        <v>3.72</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>02/09/2023 15:37</t>
+          <t>02/09/2023 15:48</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-bytom-odrzanski/IucmbFbi/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-goczalkowice-zdroj/Wr1icZDc/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:58</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.29</v>
+        <v>3.32</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.46</v>
+        <v>3.33</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:58</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.37</v>
+        <v>2.41</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:58</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-carina-gubin/0Oh8giDM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-sleza-wroclaw/MXg4fXcG/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 16:58</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.32</v>
+        <v>3.29</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.33</v>
+        <v>3.46</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 16:58</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.41</v>
+        <v>2.37</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 16:58</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-sleza-wroclaw/MXg4fXcG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-carina-gubin/0Oh8giDM/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J69" t="n">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.05</v>
+        <v>2.47</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.21</v>
+        <v>3.32</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.55</v>
+        <v>3.68</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.97</v>
+        <v>2.34</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.47</v>
+        <v>2.05</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.32</v>
+        <v>3.21</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.68</v>
+        <v>3.55</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.31</v>
+        <v>2.5</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.34</v>
+        <v>2.97</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>3.95</v>
+        <v>1.88</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4.67</v>
+        <v>2.25</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.77</v>
+        <v>3.52</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.04</v>
+        <v>3.2</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>1.58</v>
+        <v>3.26</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.55</v>
+        <v>2.88</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-rekord-bielsko-biala/8jeCBpj5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-karkonosze-jelenia-gora/xQaGA45B/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Jelenia Gora</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
-        <v>1.88</v>
+        <v>3.95</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.25</v>
+        <v>4.67</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.52</v>
+        <v>3.77</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.2</v>
+        <v>4.04</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.26</v>
+        <v>1.58</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.88</v>
+        <v>1.55</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-karkonosze-jelenia-gora/xQaGA45B/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-rekord-bielsko-biala/8jeCBpj5/</t>
         </is>
       </c>
     </row>
@@ -7933,46 +7933,46 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J82" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.77</v>
+        <v>3.96</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.36</v>
+        <v>4.22</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -7980,15 +7980,15 @@
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.87</v>
+        <v>4.14</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.21</v>
+        <v>4.28</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-starowice-dolne/YVuQGuSp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-unia-turza-slaska/zyK8uP4o/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Warta Gorzow</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>2</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Polkowice</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>5</v>
-      </c>
       <c r="J83" t="n">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.1</v>
+        <v>2.01</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.4</v>
+        <v>3.33</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.6</v>
+        <v>3.63</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.98</v>
+        <v>3.01</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-polkowice/Y7cwQq5b/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-warta-gorzow/OdjjNskH/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Unia Turza Slaska</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
       <c r="J84" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
+          <t>14/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
           <t>14/10/2023 14:59</t>
         </is>
       </c>
-      <c r="N84" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>14/10/2023 09:43</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="Q84" t="inlineStr">
+      <c r="R84" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="U84" t="inlineStr">
         <is>
           <t>14/10/2023 14:59</t>
         </is>
       </c>
-      <c r="R84" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>14/10/2023 09:43</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>14/10/2023 14:59</t>
-        </is>
-      </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-unia-turza-slaska/zyK8uP4o/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-starowice-dolne/YVuQGuSp/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J85" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.01</v>
+        <v>3.1</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.63</v>
+        <v>3.6</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.01</v>
+        <v>1.98</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-warta-gorzow/OdjjNskH/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-polkowice/Y7cwQq5b/</t>
         </is>
       </c>
     </row>
@@ -8550,6 +8550,650 @@
       <c r="V88" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rks-rakow-czestochowa-gwarek-tarnowskie-gory/SUdsP3K4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45220.45833333334</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze II</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Stilon Gorzow</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>19/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>21/10/2023 10:58</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>19/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>21/10/2023 10:58</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>19/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>21/10/2023 10:58</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-stilon-gorzow/ADEXZKYM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Sleza Wroclaw</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-sleza-wroclaw/tYMGw3Zc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Goczalkowice Zdroj</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Carina Gubin</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:03</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:03</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:03</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-carina-gubin/KOLKxNl4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Warta Gorzow</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Jelenia Gora</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-karkonosze-jelenia-gora/GjFTz1JG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Bytom Odrzanski</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Bielsko-Biala</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-rekord-bielsko-biala/x0GPys4A/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Gwarek Tarnowskie Gory</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Zielona Gora</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:40</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:40</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:40</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-zielona-gora/OGIyZvlT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Polkowice</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Rakow II</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-rks-rakow-czestochowa/Uce4Ubdp/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V95"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Slask Wroclaw II</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>2</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Carina Gubin</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
       <c r="J12" t="n">
-        <v>1.79</v>
+        <v>1.49</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:54</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.62</v>
+        <v>4.27</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.86</v>
+        <v>4.19</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:34</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.48</v>
+        <v>4.57</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>4.14</v>
+        <v>3.18</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:54</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-carina-gubin/2H8YFpP0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-starowice-dolne/G06MInur/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Slask Wroclaw II</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.49</v>
+        <v>1.79</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:54</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.27</v>
+        <v>3.62</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.19</v>
+        <v>3.86</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:34</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.57</v>
+        <v>3.48</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.18</v>
+        <v>4.14</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:54</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-starowice-dolne/G06MInur/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-carina-gubin/2H8YFpP0/</t>
         </is>
       </c>
     </row>
@@ -1769,30 +1769,30 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.29</v>
+        <v>2.22</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>19/08/2023 09:23</t>
+          <t>18/08/2023 03:13</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1800,31 +1800,31 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.66</v>
+        <v>3.28</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>19/08/2023 09:23</t>
+          <t>18/08/2023 03:13</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 14:27</t>
+          <t>19/08/2023 14:53</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.87</v>
+        <v>2.55</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>19/08/2023 09:23</t>
+          <t>18/08/2023 03:13</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.01</v>
+        <v>2.68</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-gwarek-tarnowskie-gory/bcsGSN86/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-gornik-zabrze/hKtKRsOC/</t>
         </is>
       </c>
     </row>
@@ -1861,30 +1861,30 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.22</v>
+        <v>3.29</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>18/08/2023 03:13</t>
+          <t>19/08/2023 09:23</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1892,40 +1892,40 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.28</v>
+        <v>3.66</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>18/08/2023 03:13</t>
+          <t>19/08/2023 09:23</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
+          <t>19/08/2023 14:27</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>19/08/2023 09:23</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
           <t>19/08/2023 14:53</t>
         </is>
       </c>
-      <c r="R16" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>18/08/2023 03:13</t>
-        </is>
-      </c>
-      <c r="T16" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>19/08/2023 14:53</t>
-        </is>
-      </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-gornik-zabrze/hKtKRsOC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-gwarek-tarnowskie-gory/bcsGSN86/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Jelenia Gora</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.48</v>
+        <v>4.37</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.88</v>
+        <v>2.99</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:44</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.28</v>
+        <v>3.94</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.67</v>
+        <v>3.29</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:44</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.48</v>
+        <v>1.58</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.33</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:44</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/karkonosze-jelenia-gora-zielona-gora/hdbXzn1Q/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-polkowice/pfwCT3g0/</t>
         </is>
       </c>
     </row>
@@ -2137,58 +2137,58 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.37</v>
+        <v>2.4</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.99</v>
+        <v>3.02</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19/08/2023 16:44</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.94</v>
+        <v>3.3</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.29</v>
+        <v>3.66</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>19/08/2023 16:44</t>
+          <t>19/08/2023 16:50</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.58</v>
+        <v>2.34</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="T19" t="n">
@@ -2196,12 +2196,12 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>19/08/2023 16:44</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-polkowice/pfwCT3g0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-kluczbork/AX8SySoK/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Rakow II</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.4</v>
+        <v>1.88</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.02</v>
+        <v>1.86</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2272,11 +2272,11 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:50</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.34</v>
+        <v>3.13</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.94</v>
+        <v>3.38</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-kluczbork/AX8SySoK/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-rks-rakow-czestochowa/f5paW59s/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Rakow II</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>19/08/2023 09:24</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
         <v>1.88</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>18/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1.86</v>
-      </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.49</v>
+        <v>3.28</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.13</v>
+        <v>2.48</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.38</v>
+        <v>3.33</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-rks-rakow-czestochowa/f5paW59s/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/karkonosze-jelenia-gora-zielona-gora/hdbXzn1Q/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>22/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>23/08/2023 16:52</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>22/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>23/08/2023 16:52</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>22/08/2023 05:12</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
         <v>1.85</v>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>22/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>23/08/2023 16:57</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>22/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="P25" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>23/08/2023 16:56</t>
-        </is>
-      </c>
-      <c r="R25" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>22/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="T25" t="n">
-        <v>2.8</v>
-      </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>23/08/2023 16:57</t>
+          <t>23/08/2023 16:52</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-rekord-bielsko-biala/AHSku1hC/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.99</v>
+        <v>2.36</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:07</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.77</v>
+        <v>3.38</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.93</v>
+        <v>3.09</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:56</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.7</v>
+        <v>3.18</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:07</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-bytom-odrzanski/Agp3l5VP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Bytom Odrzanski</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Bielsko-Biala</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>2</v>
-      </c>
       <c r="J28" t="n">
-        <v>3.46</v>
+        <v>1.7</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3.43</v>
+        <v>1.99</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:52</t>
+          <t>23/08/2023 16:07</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.57</v>
+        <v>3.77</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.64</v>
+        <v>3.93</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:52</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1.72</v>
+        <v>3.7</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.85</v>
+        <v>2.88</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:52</t>
+          <t>23/08/2023 16:07</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-rekord-bielsko-biala/AHSku1hC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-bytom-odrzanski/Agp3l5VP/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.54</v>
+        <v>1.58</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.31</v>
+        <v>1.71</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>09/09/2023 15:34</t>
+          <t>09/09/2023 15:56</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.14</v>
+        <v>3.95</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.25</v>
+        <v>3.98</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>09/09/2023 14:05</t>
+          <t>09/09/2023 15:56</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.74</v>
+        <v>3.7</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>09/09/2023 15:34</t>
+          <t>09/09/2023 15:55</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-polkowice/8lIo7AsM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-stilon-gorzow/jgXnn95d/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.58</v>
+        <v>2.54</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.71</v>
+        <v>2.31</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:56</t>
+          <t>09/09/2023 15:34</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.95</v>
+        <v>3.14</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.98</v>
+        <v>3.25</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:56</t>
+          <t>09/09/2023 14:05</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.7</v>
+        <v>2.74</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:55</t>
+          <t>09/09/2023 15:34</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-stilon-gorzow/jgXnn95d/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-polkowice/8lIo7AsM/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Unia Turza Slaska</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>4</v>
-      </c>
       <c r="J82" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
+          <t>14/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
           <t>14/10/2023 14:59</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>14/10/2023 09:43</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="Q82" t="inlineStr">
+      <c r="R82" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="U82" t="inlineStr">
         <is>
           <t>14/10/2023 14:59</t>
         </is>
       </c>
-      <c r="R82" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>14/10/2023 09:43</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>14/10/2023 14:59</t>
-        </is>
-      </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-unia-turza-slaska/zyK8uP4o/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-starowice-dolne/YVuQGuSp/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J83" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.01</v>
+        <v>3.1</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.63</v>
+        <v>3.6</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.01</v>
+        <v>1.98</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-warta-gorzow/OdjjNskH/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-polkowice/Y7cwQq5b/</t>
         </is>
       </c>
     </row>
@@ -8117,46 +8117,46 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.77</v>
+        <v>3.96</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.36</v>
+        <v>4.22</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8164,15 +8164,15 @@
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.87</v>
+        <v>4.14</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>4.21</v>
+        <v>4.28</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-starowice-dolne/YVuQGuSp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-unia-turza-slaska/zyK8uP4o/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Warta Gorzow</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>2</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Polkowice</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>5</v>
-      </c>
       <c r="J85" t="n">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.1</v>
+        <v>2.01</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.4</v>
+        <v>3.33</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.6</v>
+        <v>3.63</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.98</v>
+        <v>3.01</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-polkowice/Y7cwQq5b/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-warta-gorzow/OdjjNskH/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>3.33</v>
+        <v>1.76</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>4.45</v>
+        <v>1.83</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>21/10/2023 12:56</t>
+          <t>21/10/2023 12:03</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.75</v>
+        <v>3.41</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>4.27</v>
+        <v>3.47</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>21/10/2023 12:56</t>
+          <t>21/10/2023 12:03</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>1.72</v>
+        <v>3.46</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1.54</v>
+        <v>3.67</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>21/10/2023 12:56</t>
+          <t>21/10/2023 12:03</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-sleza-wroclaw/tYMGw3Zc/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-carina-gubin/KOLKxNl4/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>1.76</v>
+        <v>3.33</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.83</v>
+        <v>4.45</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>21/10/2023 12:03</t>
+          <t>21/10/2023 12:56</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.41</v>
+        <v>3.75</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.47</v>
+        <v>4.27</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>21/10/2023 12:03</t>
+          <t>21/10/2023 12:56</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.46</v>
+        <v>1.72</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.67</v>
+        <v>1.54</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>21/10/2023 12:03</t>
+          <t>21/10/2023 12:56</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-carina-gubin/KOLKxNl4/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-sleza-wroclaw/tYMGw3Zc/</t>
         </is>
       </c>
     </row>
@@ -9194,6 +9194,98 @@
       <c r="V95" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-rks-rakow-czestochowa/Uce4Ubdp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45221.58333333334</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw II</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>3</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Pawlowice</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:07</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:07</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>21/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:07</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-pniowek-pawlowice/8lf8TIBj/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.47</v>
+        <v>2.05</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.32</v>
+        <v>3.21</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.68</v>
+        <v>3.55</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.31</v>
+        <v>2.5</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.34</v>
+        <v>2.97</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J70" t="n">
-        <v>1.91</v>
+        <v>2.43</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.72</v>
+        <v>2.47</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.45</v>
+        <v>3.32</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.9</v>
+        <v>3.68</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3</v>
+        <v>2.31</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.74</v>
+        <v>2.34</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-gornik-zabrze/vD8ZQ4Yf/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>2.53</v>
+        <v>1.91</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.9</v>
+        <v>1.72</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.16</v>
+        <v>3.45</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.12</v>
+        <v>3.74</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-goczalkowice-zdroj/QTAoO2ID/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-gornik-zabrze/vD8ZQ4Yf/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>29/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>29/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
         <v>2.3</v>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>29/09/2023 03:12</t>
         </is>
       </c>
-      <c r="L72" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>29/09/2023 03:12</t>
-        </is>
-      </c>
-      <c r="P72" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="R72" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>29/09/2023 03:12</t>
-        </is>
-      </c>
       <c r="T72" t="n">
-        <v>2.97</v>
+        <v>2.12</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-goczalkowice-zdroj/QTAoO2ID/</t>
         </is>
       </c>
     </row>
@@ -9286,6 +9286,98 @@
       <c r="V96" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-pniowek-pawlowice/8lf8TIBj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45224.625</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Zielona Gora</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze II</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>24/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>25/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-gornik-zabrze/tY0oONZA/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Slask Wroclaw II</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.49</v>
+        <v>1.79</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:54</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.27</v>
+        <v>3.62</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.19</v>
+        <v>3.86</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:34</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>4.57</v>
+        <v>3.48</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.18</v>
+        <v>4.14</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:54</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-starowice-dolne/G06MInur/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-carina-gubin/2H8YFpP0/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Slask Wroclaw II</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Carina Gubin</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.79</v>
+        <v>1.49</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:54</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.62</v>
+        <v>4.27</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.86</v>
+        <v>4.19</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:34</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.48</v>
+        <v>4.57</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>4.14</v>
+        <v>3.18</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:54</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-carina-gubin/2H8YFpP0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-starowice-dolne/G06MInur/</t>
         </is>
       </c>
     </row>
@@ -1769,30 +1769,30 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.22</v>
+        <v>3.29</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>18/08/2023 03:13</t>
+          <t>19/08/2023 09:23</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1800,40 +1800,40 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.28</v>
+        <v>3.66</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>18/08/2023 03:13</t>
+          <t>19/08/2023 09:23</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
+          <t>19/08/2023 14:27</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>19/08/2023 09:23</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
           <t>19/08/2023 14:53</t>
         </is>
       </c>
-      <c r="R15" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>18/08/2023 03:13</t>
-        </is>
-      </c>
-      <c r="T15" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>19/08/2023 14:53</t>
-        </is>
-      </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-gornik-zabrze/hKtKRsOC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-gwarek-tarnowskie-gory/bcsGSN86/</t>
         </is>
       </c>
     </row>
@@ -1861,30 +1861,30 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.29</v>
+        <v>2.22</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>19/08/2023 09:23</t>
+          <t>18/08/2023 03:13</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1892,31 +1892,31 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.66</v>
+        <v>3.28</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>19/08/2023 09:23</t>
+          <t>18/08/2023 03:13</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19/08/2023 14:27</t>
+          <t>19/08/2023 14:53</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.87</v>
+        <v>2.55</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>19/08/2023 09:23</t>
+          <t>18/08/2023 03:13</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.01</v>
+        <v>2.68</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-gwarek-tarnowskie-gory/bcsGSN86/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-gornik-zabrze/hKtKRsOC/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>4.37</v>
+        <v>2.48</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.99</v>
+        <v>1.88</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19/08/2023 16:44</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.94</v>
+        <v>3.28</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.29</v>
+        <v>3.67</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>19/08/2023 16:44</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>1.58</v>
+        <v>2.48</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.94</v>
+        <v>3.33</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>19/08/2023 16:44</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-polkowice/pfwCT3g0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/karkonosze-jelenia-gora-zielona-gora/hdbXzn1Q/</t>
         </is>
       </c>
     </row>
@@ -2137,58 +2137,58 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2.4</v>
+        <v>4.37</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.02</v>
+        <v>2.99</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:44</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.3</v>
+        <v>3.94</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.66</v>
+        <v>3.29</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>19/08/2023 16:50</t>
+          <t>19/08/2023 16:44</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.34</v>
+        <v>1.58</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="T19" t="n">
@@ -2196,12 +2196,12 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:44</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-kluczbork/AX8SySoK/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-polkowice/pfwCT3g0/</t>
         </is>
       </c>
     </row>
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Rakow II</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.88</v>
+        <v>2.4</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.86</v>
+        <v>3.02</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.49</v>
+        <v>3.3</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2272,11 +2272,11 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:50</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>3.13</v>
+        <v>2.34</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,16 +2284,16 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.38</v>
+        <v>1.94</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-rks-rakow-czestochowa/f5paW59s/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-kluczbork/AX8SySoK/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Jelenia Gora</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Rakow II</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.48</v>
+        <v>1.88</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.28</v>
+        <v>3.49</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.48</v>
+        <v>3.13</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.33</v>
+        <v>3.38</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/karkonosze-jelenia-gora-zielona-gora/hdbXzn1Q/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-rks-rakow-czestochowa/f5paW59s/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Warta Gorzow</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Bielsko-Biala</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>2</v>
-      </c>
       <c r="J25" t="n">
-        <v>3.46</v>
+        <v>1.85</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3.43</v>
+        <v>2.36</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>23/08/2023 16:52</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.57</v>
+        <v>3.38</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.64</v>
+        <v>3.09</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>23/08/2023 16:52</t>
+          <t>23/08/2023 16:56</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>1.72</v>
+        <v>3.18</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>23/08/2023 16:52</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-rekord-bielsko-biala/AHSku1hC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.36</v>
+        <v>1.99</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:57</t>
+          <t>23/08/2023 16:07</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.38</v>
+        <v>3.77</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.09</v>
+        <v>3.93</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:56</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.18</v>
+        <v>3.7</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:57</t>
+          <t>23/08/2023 16:07</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-bytom-odrzanski/Agp3l5VP/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
-        <v>1.7</v>
+        <v>3.46</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.99</v>
+        <v>3.43</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:07</t>
+          <t>23/08/2023 16:52</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.77</v>
+        <v>3.57</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.93</v>
+        <v>3.64</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:52</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.7</v>
+        <v>1.72</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.88</v>
+        <v>1.85</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:07</t>
+          <t>23/08/2023 16:52</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-bytom-odrzanski/Agp3l5VP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-rekord-bielsko-biala/AHSku1hC/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.58</v>
+        <v>2.54</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.71</v>
+        <v>2.31</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>09/09/2023 15:56</t>
+          <t>09/09/2023 15:34</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.95</v>
+        <v>3.14</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.98</v>
+        <v>3.25</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>09/09/2023 15:56</t>
+          <t>09/09/2023 14:05</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.7</v>
+        <v>2.74</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>09/09/2023 15:55</t>
+          <t>09/09/2023 15:34</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-stilon-gorzow/jgXnn95d/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-polkowice/8lIo7AsM/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.54</v>
+        <v>1.58</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.31</v>
+        <v>1.71</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:34</t>
+          <t>09/09/2023 15:56</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.14</v>
+        <v>3.95</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.25</v>
+        <v>3.98</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>09/09/2023 14:05</t>
+          <t>09/09/2023 15:56</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.74</v>
+        <v>3.7</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:34</t>
+          <t>09/09/2023 15:55</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-polkowice/8lIo7AsM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-stilon-gorzow/jgXnn95d/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J69" t="n">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.05</v>
+        <v>2.47</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.21</v>
+        <v>3.32</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.55</v>
+        <v>3.68</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.97</v>
+        <v>2.34</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>2.43</v>
+        <v>1.91</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.47</v>
+        <v>1.72</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.32</v>
+        <v>3.45</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.68</v>
+        <v>3.9</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.31</v>
+        <v>3</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.34</v>
+        <v>3.74</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-gornik-zabrze/vD8ZQ4Yf/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.91</v>
+        <v>2.53</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,48 +6944,48 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.72</v>
+        <v>2.9</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N71" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>29/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
         <v>3.45</v>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S71" t="inlineStr">
         <is>
           <t>29/09/2023 03:12</t>
         </is>
       </c>
-      <c r="P71" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:07</t>
-        </is>
-      </c>
-      <c r="R71" t="n">
-        <v>3</v>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>29/09/2023 03:12</t>
-        </is>
-      </c>
       <c r="T71" t="n">
-        <v>3.74</v>
+        <v>2.12</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-gornik-zabrze/vD8ZQ4Yf/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-goczalkowice-zdroj/QTAoO2ID/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>2.53</v>
+        <v>2.3</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.16</v>
+        <v>3.21</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.12</v>
+        <v>2.97</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-goczalkowice-zdroj/QTAoO2ID/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Jelenia Gora</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>1.88</v>
+        <v>3.95</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.25</v>
+        <v>4.67</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.52</v>
+        <v>3.77</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.2</v>
+        <v>4.04</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.26</v>
+        <v>1.58</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.88</v>
+        <v>1.55</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-karkonosze-jelenia-gora/xQaGA45B/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-rekord-bielsko-biala/8jeCBpj5/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>3.95</v>
+        <v>1.88</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>4.67</v>
+        <v>2.25</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.77</v>
+        <v>3.52</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.04</v>
+        <v>3.2</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>1.58</v>
+        <v>3.26</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1.55</v>
+        <v>2.88</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-rekord-bielsko-biala/8jeCBpj5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-karkonosze-jelenia-gora/xQaGA45B/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>3.43</v>
+        <v>2.13</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.07</v>
+        <v>2.18</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:40</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.57</v>
+        <v>3.26</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:40</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>1.74</v>
+        <v>2.7</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:40</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-rekord-bielsko-biala/x0GPys4A/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-zielona-gora/OGIyZvlT/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Rakow II</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>2.13</v>
+        <v>1.76</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.18</v>
+        <v>1.48</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>21/10/2023 14:40</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.26</v>
+        <v>3.58</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.47</v>
+        <v>4.28</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>21/10/2023 14:40</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.8</v>
+        <v>5.14</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>21/10/2023 14:40</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-zielona-gora/OGIyZvlT/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-rks-rakow-czestochowa/Uce4Ubdp/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rakow II</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95" t="n">
-        <v>1.76</v>
+        <v>3.43</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.48</v>
+        <v>3.07</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4.28</v>
+        <v>3.42</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.3</v>
+        <v>1.74</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>5.14</v>
+        <v>2.05</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-rks-rakow-czestochowa/Uce4Ubdp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-rekord-bielsko-biala/x0GPys4A/</t>
         </is>
       </c>
     </row>
@@ -9378,6 +9378,650 @@
       <c r="V97" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-gornik-zabrze/tY0oONZA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45226.625</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bytom Odrzanski</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Carina Gubin</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>26/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>27/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-carina-gubin/02TFnbIS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45227.52083333334</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Rakow II</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw II</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>27/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:08</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>27/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:08</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>27/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:08</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rks-rakow-czestochowa-slask-wroclaw/EosfiM3c/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Unia Turza Slaska</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:01</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>27/10/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-starowice-dolne/dYEosxtj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Stilon Gorzow</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Gwarek Tarnowskie Gory</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:02</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-gwarek-tarnowskie-gory/ADz3k0Y9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45227.70833333334</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Jelenia Gora</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze II</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:13</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:46</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:46</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>28/10/2023 15:13</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>28/10/2023 16:46</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/karkonosze-jelenia-gora-gornik-zabrze/4zz7lKmG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sleza Wroclaw</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Goczalkowice Zdroj</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:35</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:01</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:35</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-goczalkowice-zdroj/2BFsrIQq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Zielona Gora</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Polkowice</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>28/10/2023 11:38</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:03</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>28/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>28/10/2023 11:38</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-polkowice/dAWbjtJ3/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Slask Wroclaw II</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>2</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Carina Gubin</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
       <c r="J12" t="n">
-        <v>1.79</v>
+        <v>1.49</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:54</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.62</v>
+        <v>4.27</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.86</v>
+        <v>4.19</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:34</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.48</v>
+        <v>4.57</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>4.14</v>
+        <v>3.18</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:54</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-carina-gubin/2H8YFpP0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-starowice-dolne/G06MInur/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Slask Wroclaw II</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.49</v>
+        <v>1.79</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:54</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>4.27</v>
+        <v>3.62</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.19</v>
+        <v>3.86</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:34</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.57</v>
+        <v>3.48</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.18</v>
+        <v>4.14</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:54</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-starowice-dolne/G06MInur/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-carina-gubin/2H8YFpP0/</t>
         </is>
       </c>
     </row>
@@ -1769,30 +1769,30 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.29</v>
+        <v>2.22</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>19/08/2023 09:23</t>
+          <t>18/08/2023 03:13</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1800,31 +1800,31 @@
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.66</v>
+        <v>3.28</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>19/08/2023 09:23</t>
+          <t>18/08/2023 03:13</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.52</v>
+        <v>3.3</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 14:27</t>
+          <t>19/08/2023 14:53</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>1.87</v>
+        <v>2.55</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>19/08/2023 09:23</t>
+          <t>18/08/2023 03:13</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.01</v>
+        <v>2.68</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-gwarek-tarnowskie-gory/bcsGSN86/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-gornik-zabrze/hKtKRsOC/</t>
         </is>
       </c>
     </row>
@@ -1861,30 +1861,30 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.22</v>
+        <v>3.29</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>18/08/2023 03:13</t>
+          <t>19/08/2023 09:23</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -1892,40 +1892,40 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.28</v>
+        <v>3.66</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>18/08/2023 03:13</t>
+          <t>19/08/2023 09:23</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.3</v>
+        <v>3.52</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
+          <t>19/08/2023 14:27</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>19/08/2023 09:23</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
           <t>19/08/2023 14:53</t>
         </is>
       </c>
-      <c r="R16" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>18/08/2023 03:13</t>
-        </is>
-      </c>
-      <c r="T16" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>19/08/2023 14:53</t>
-        </is>
-      </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-gornik-zabrze/hKtKRsOC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-gwarek-tarnowskie-gory/bcsGSN86/</t>
         </is>
       </c>
     </row>
@@ -2045,71 +2045,71 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Jelenia Gora</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.88</v>
+        <v>3.02</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:50</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>3.33</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/karkonosze-jelenia-gora-zielona-gora/hdbXzn1Q/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-kluczbork/AX8SySoK/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,63 +2145,63 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Rakow II</t>
         </is>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.37</v>
+        <v>1.88</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.99</v>
+        <v>1.86</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19/08/2023 16:44</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.94</v>
+        <v>3.49</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.29</v>
+        <v>3.66</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>19/08/2023 16:44</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>1.58</v>
+        <v>3.13</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>1.94</v>
+        <v>3.38</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>19/08/2023 16:44</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-polkowice/pfwCT3g0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-rks-rakow-czestochowa/f5paW59s/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.02</v>
+        <v>1.88</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.3</v>
+        <v>3.28</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:50</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.94</v>
+        <v>3.33</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-kluczbork/AX8SySoK/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/karkonosze-jelenia-gora-zielona-gora/hdbXzn1Q/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Rakow II</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.88</v>
+        <v>2.11</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.86</v>
+        <v>2.47</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:55</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.49</v>
+        <v>3.36</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:55</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>3.13</v>
+        <v>2.65</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>3.38</v>
+        <v>2.37</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:55</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-rks-rakow-czestochowa/f5paW59s/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-pniowek-pawlowice/Ovk3VPOm/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.11</v>
+        <v>4.37</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>2.47</v>
+        <v>2.99</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:55</t>
+          <t>19/08/2023 16:44</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.36</v>
+        <v>3.94</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.6</v>
+        <v>3.29</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:55</t>
+          <t>19/08/2023 16:44</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.65</v>
+        <v>1.58</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>2.37</v>
+        <v>1.94</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>19/08/2023 16:55</t>
+          <t>19/08/2023 16:44</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-pniowek-pawlowice/Ovk3VPOm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-polkowice/pfwCT3g0/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.36</v>
+        <v>1.71</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>23/08/2023 16:57</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.38</v>
+        <v>4.29</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.09</v>
+        <v>4.53</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>23/08/2023 16:56</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.18</v>
+        <v>4.42</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.8</v>
+        <v>3.31</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>23/08/2023 16:57</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-starowice-dolne/txyZrqgm/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,63 +2789,63 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.71</v>
+        <v>2.2</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.29</v>
+        <v>3.29</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.53</v>
+        <v>3.3</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>4.42</v>
+        <v>3.06</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.31</v>
+        <v>2.88</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-starowice-dolne/txyZrqgm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-goczalkowice-zdroj/SYWUqPws/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.29</v>
+        <v>3.38</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.3</v>
+        <v>3.09</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:56</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.06</v>
+        <v>3.18</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-goczalkowice-zdroj/SYWUqPws/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 16:58</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.32</v>
+        <v>3.29</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.33</v>
+        <v>3.46</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 16:58</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.41</v>
+        <v>2.37</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 16:58</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-sleza-wroclaw/MXg4fXcG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-carina-gubin/0Oh8giDM/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:58</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.29</v>
+        <v>3.32</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.46</v>
+        <v>3.33</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:58</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.26</v>
+        <v>2.35</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.37</v>
+        <v>2.41</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:58</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-carina-gubin/0Oh8giDM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-sleza-wroclaw/MXg4fXcG/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.47</v>
+        <v>2.05</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.32</v>
+        <v>3.21</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.68</v>
+        <v>3.55</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.31</v>
+        <v>2.5</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.34</v>
+        <v>2.97</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J70" t="n">
-        <v>1.91</v>
+        <v>2.43</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.72</v>
+        <v>2.47</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.45</v>
+        <v>3.32</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.9</v>
+        <v>3.68</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3</v>
+        <v>2.31</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.74</v>
+        <v>2.34</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-gornik-zabrze/vD8ZQ4Yf/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.21</v>
+        <v>3.45</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.97</v>
+        <v>3.74</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-gornik-zabrze/vD8ZQ4Yf/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>3.95</v>
+        <v>1.88</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4.67</v>
+        <v>2.25</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.77</v>
+        <v>3.52</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.04</v>
+        <v>3.2</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>1.58</v>
+        <v>3.26</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.55</v>
+        <v>2.88</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-rekord-bielsko-biala/8jeCBpj5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-karkonosze-jelenia-gora/xQaGA45B/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Jelenia Gora</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
-        <v>1.88</v>
+        <v>3.95</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.25</v>
+        <v>4.67</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.52</v>
+        <v>3.77</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.2</v>
+        <v>4.04</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.26</v>
+        <v>1.58</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.88</v>
+        <v>1.55</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-karkonosze-jelenia-gora/xQaGA45B/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-rekord-bielsko-biala/8jeCBpj5/</t>
         </is>
       </c>
     </row>
@@ -7933,46 +7933,46 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J82" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.77</v>
+        <v>3.96</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.36</v>
+        <v>4.22</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -7980,15 +7980,15 @@
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.87</v>
+        <v>4.14</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.21</v>
+        <v>4.28</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-starowice-dolne/YVuQGuSp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-unia-turza-slaska/zyK8uP4o/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Warta Gorzow</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>2</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Polkowice</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>5</v>
-      </c>
       <c r="J83" t="n">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.1</v>
+        <v>2.01</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.4</v>
+        <v>3.33</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.6</v>
+        <v>3.63</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.98</v>
+        <v>3.01</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-polkowice/Y7cwQq5b/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-warta-gorzow/OdjjNskH/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Unia Turza Slaska</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
       <c r="J84" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
+          <t>14/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
           <t>14/10/2023 14:59</t>
         </is>
       </c>
-      <c r="N84" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>14/10/2023 09:43</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="Q84" t="inlineStr">
+      <c r="R84" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="U84" t="inlineStr">
         <is>
           <t>14/10/2023 14:59</t>
         </is>
       </c>
-      <c r="R84" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>14/10/2023 09:43</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>14/10/2023 14:59</t>
-        </is>
-      </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-unia-turza-slaska/zyK8uP4o/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-starowice-dolne/YVuQGuSp/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J85" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.01</v>
+        <v>3.1</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.63</v>
+        <v>3.6</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.01</v>
+        <v>1.98</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-warta-gorzow/OdjjNskH/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-polkowice/Y7cwQq5b/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Rakow II</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>2.13</v>
+        <v>1.76</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.18</v>
+        <v>1.48</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>21/10/2023 14:40</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.26</v>
+        <v>3.58</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.47</v>
+        <v>4.28</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>21/10/2023 14:40</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.8</v>
+        <v>5.14</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>21/10/2023 14:40</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-zielona-gora/OGIyZvlT/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-rks-rakow-czestochowa/Uce4Ubdp/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rakow II</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.48</v>
+        <v>2.18</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:40</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.58</v>
+        <v>3.26</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>4.28</v>
+        <v>3.47</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:40</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>5.14</v>
+        <v>2.8</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:40</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-rks-rakow-czestochowa/Uce4Ubdp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-zielona-gora/OGIyZvlT/</t>
         </is>
       </c>
     </row>
@@ -10022,6 +10022,742 @@
       <c r="V104" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-polkowice/dAWbjtJ3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45234.5</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Kluczbork</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:51</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:57</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:57</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-kluczbork/fJXltded/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45234.5</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Bytom Odrzanski</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>2</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Sleza Wroclaw</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-sleza-wroclaw/zFAy4am3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Goczalkowice Zdroj</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Unia Turza Slaska</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>2</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:36</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:36</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:36</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-unia-turza-slaska/dOBX4uYd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Gwarek Tarnowskie Gory</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Jelenia Gora</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:10</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:10</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:10</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-karkonosze-jelenia-gora/OxSDpBnr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Pawlowice</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>3</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Rakow II</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:06</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:06</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:06</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-rks-rakow-czestochowa/AgUPs9W0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Polkowice</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>3</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Stilon Gorzow</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-stilon-gorzow/xtWHqV1l/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw II</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Zielona Gora</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>2</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:09</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:09</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:09</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-zielona-gora/W2VLrkHf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Warta Gorzow</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>2</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Carina Gubin</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:21</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-carina-gubin/4lFu3J29/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V112"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J69" t="n">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.05</v>
+        <v>2.47</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.21</v>
+        <v>3.32</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.55</v>
+        <v>3.68</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.97</v>
+        <v>2.34</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>2.43</v>
+        <v>1.91</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.47</v>
+        <v>1.72</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.32</v>
+        <v>3.45</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.68</v>
+        <v>3.9</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.31</v>
+        <v>3</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.34</v>
+        <v>3.74</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-gornik-zabrze/vD8ZQ4Yf/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.72</v>
+        <v>2.05</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.45</v>
+        <v>3.21</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.74</v>
+        <v>2.97</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-gornik-zabrze/vD8ZQ4Yf/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
         </is>
       </c>
     </row>
@@ -8025,22 +8025,22 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Warta Gorzow</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>2</v>
-      </c>
       <c r="J83" t="n">
-        <v>2.01</v>
+        <v>1.6</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,48 +8048,48 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.01</v>
+        <v>1.56</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
+          <t>14/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
           <t>14/10/2023 14:59</t>
         </is>
       </c>
-      <c r="N83" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="O83" t="inlineStr">
+      <c r="R83" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S83" t="inlineStr">
         <is>
           <t>13/10/2023 02:13</t>
         </is>
       </c>
-      <c r="P83" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="Q83" t="inlineStr">
+      <c r="T83" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="U83" t="inlineStr">
         <is>
           <t>14/10/2023 14:59</t>
         </is>
       </c>
-      <c r="R83" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>13/10/2023 02:13</t>
-        </is>
-      </c>
-      <c r="T83" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>14/10/2023 14:59</t>
-        </is>
-      </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-warta-gorzow/OdjjNskH/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-starowice-dolne/YVuQGuSp/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J84" t="n">
-        <v>1.6</v>
+        <v>1.93</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.56</v>
+        <v>3.1</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.77</v>
+        <v>3.4</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.36</v>
+        <v>3.6</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.87</v>
+        <v>2.99</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>4.21</v>
+        <v>1.98</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-starowice-dolne/YVuQGuSp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-polkowice/Y7cwQq5b/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Warta Gorzow</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>2</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Polkowice</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>5</v>
-      </c>
       <c r="J85" t="n">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.1</v>
+        <v>2.01</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.4</v>
+        <v>3.33</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.6</v>
+        <v>3.63</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.98</v>
+        <v>3.01</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-polkowice/Y7cwQq5b/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-warta-gorzow/OdjjNskH/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Rakow II</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>1.76</v>
+        <v>3.43</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.48</v>
+        <v>3.07</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>4.28</v>
+        <v>3.42</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.3</v>
+        <v>1.74</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.14</v>
+        <v>2.05</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-rks-rakow-czestochowa/Uce4Ubdp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-rekord-bielsko-biala/x0GPys4A/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Rakow II</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>3.43</v>
+        <v>1.76</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>3.07</v>
+        <v>1.48</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.57</v>
+        <v>3.58</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.42</v>
+        <v>4.28</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>1.74</v>
+        <v>3.3</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.05</v>
+        <v>5.14</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-rekord-bielsko-biala/x0GPys4A/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-rks-rakow-czestochowa/Uce4Ubdp/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Polkowice</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
         <v>1</v>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Goczalkowice Zdroj</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
       <c r="J103" t="n">
-        <v>2.16</v>
+        <v>2.45</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.15</v>
+        <v>2.42</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>29/10/2023 11:35</t>
+          <t>28/10/2023 11:38</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.32</v>
+        <v>3.26</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.46</v>
+        <v>3.38</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>29/10/2023 12:01</t>
+          <t>29/10/2023 12:03</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.68</v>
+        <v>2.36</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.81</v>
+        <v>2.49</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>29/10/2023 11:35</t>
+          <t>28/10/2023 11:38</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-goczalkowice-zdroj/2BFsrIQq/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-polkowice/dAWbjtJ3/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="G104" t="n">
+        <v>1</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Goczalkowice Zdroj</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Polkowice</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
-        <v>1</v>
-      </c>
       <c r="J104" t="n">
-        <v>2.45</v>
+        <v>2.16</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.42</v>
+        <v>2.15</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>28/10/2023 11:38</t>
+          <t>29/10/2023 11:35</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.26</v>
+        <v>3.32</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.38</v>
+        <v>3.46</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>29/10/2023 12:03</t>
+          <t>29/10/2023 12:01</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.36</v>
+        <v>2.68</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.49</v>
+        <v>2.81</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>28/10/2023 11:38</t>
+          <t>29/10/2023 11:35</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-polkowice/dAWbjtJ3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-goczalkowice-zdroj/2BFsrIQq/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>3.5</v>
+        <v>2.51</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>4.03</v>
+        <v>3.44</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.73</v>
+        <v>3.39</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>4</v>
+        <v>3.82</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>04/11/2023 11:57</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>04/11/2023 11:57</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-kluczbork/fJXltded/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-sleza-wroclaw/zFAy4am3/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2.51</v>
+        <v>3.5</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.44</v>
+        <v>4.03</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.39</v>
+        <v>3.73</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.82</v>
+        <v>4</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:57</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.2</v>
+        <v>1.68</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:57</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-sleza-wroclaw/zFAy4am3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-kluczbork/fJXltded/</t>
         </is>
       </c>
     </row>
@@ -10758,6 +10758,98 @@
       <c r="V112" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-carina-gubin/4lFu3J29/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45235.5</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze II</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Bielsko-Biala</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>3</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:14</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>05/11/2023 09:51</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:14</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>05/11/2023 11:01</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>04/11/2023 00:14</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>05/11/2023 09:51</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-rekord-bielsko-biala/ruEq2wIF/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10853,6 +10853,98 @@
         </is>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45240.70833333334</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Kluczbork</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>3</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Rakow II</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>10/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>10/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>10/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>10/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>10/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>10/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-rks-rakow-czestochowa/j5oNtTo7/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/poland_iii-liga-group-iii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V114"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Slask Wroclaw II</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.49</v>
+        <v>1.79</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:54</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.27</v>
+        <v>3.62</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.19</v>
+        <v>3.86</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:34</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>4.57</v>
+        <v>3.48</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.18</v>
+        <v>4.14</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>13/08/2023 13:54</t>
+          <t>13/08/2023 13:24</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-starowice-dolne/G06MInur/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-carina-gubin/2H8YFpP0/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Slask Wroclaw II</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Carina Gubin</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.79</v>
+        <v>1.49</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:54</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.62</v>
+        <v>4.27</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.86</v>
+        <v>4.19</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:34</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.48</v>
+        <v>4.57</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>4.14</v>
+        <v>3.18</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>13/08/2023 13:24</t>
+          <t>13/08/2023 13:54</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-carina-gubin/2H8YFpP0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-starowice-dolne/G06MInur/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Rakow II</t>
         </is>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2.4</v>
+        <v>1.88</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>3.02</v>
+        <v>1.86</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2088,11 +2088,11 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>19/08/2023 16:50</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.34</v>
+        <v>3.13</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>1.94</v>
+        <v>3.38</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>19/08/2023 16:51</t>
+          <t>19/08/2023 16:57</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-kluczbork/AX8SySoK/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-rks-rakow-czestochowa/f5paW59s/</t>
         </is>
       </c>
     </row>
@@ -2137,71 +2137,71 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Rakow II</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>19/08/2023 09:24</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
         <v>1.88</v>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>18/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1.86</v>
-      </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.49</v>
+        <v>3.28</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.66</v>
+        <v>3.67</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.13</v>
+        <v>2.48</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>18/08/2023 05:12</t>
+          <t>19/08/2023 09:24</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>3.38</v>
+        <v>3.33</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>19/08/2023 16:57</t>
+          <t>19/08/2023 16:56</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-rks-rakow-czestochowa/f5paW59s/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/karkonosze-jelenia-gora-zielona-gora/hdbXzn1Q/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Jelenia Gora</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.88</v>
+        <v>3.02</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.28</v>
+        <v>3.3</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:50</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:24</t>
+          <t>18/08/2023 05:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>3.33</v>
+        <v>1.94</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 16:56</t>
+          <t>19/08/2023 16:51</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/karkonosze-jelenia-gora-zielona-gora/hdbXzn1Q/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-kluczbork/AX8SySoK/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>1.53</v>
+        <v>3.46</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.71</v>
+        <v>3.43</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:52</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>4.29</v>
+        <v>3.57</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>4.53</v>
+        <v>3.64</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:52</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>4.42</v>
+        <v>1.72</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.31</v>
+        <v>1.85</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:52</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-starowice-dolne/txyZrqgm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-rekord-bielsko-biala/AHSku1hC/</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G26" t="n">
@@ -2789,63 +2789,63 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.2</v>
+        <v>1.71</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.29</v>
+        <v>4.29</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.3</v>
+        <v>4.53</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.06</v>
+        <v>4.42</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.88</v>
+        <v>3.31</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-goczalkowice-zdroj/SYWUqPws/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-starowice-dolne/txyZrqgm/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.99</v>
+        <v>2.36</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:07</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.77</v>
+        <v>3.38</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.93</v>
+        <v>3.09</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:56</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.7</v>
+        <v>3.18</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:07</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-bytom-odrzanski/Agp3l5VP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Bytom Odrzanski</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Bielsko-Biala</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>2</v>
-      </c>
       <c r="J28" t="n">
-        <v>3.46</v>
+        <v>1.7</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>3.43</v>
+        <v>1.99</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:52</t>
+          <t>23/08/2023 16:07</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.57</v>
+        <v>3.77</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.64</v>
+        <v>3.93</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:52</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>1.72</v>
+        <v>3.7</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>1.85</v>
+        <v>2.88</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:52</t>
+          <t>23/08/2023 16:07</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-rekord-bielsko-biala/AHSku1hC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-bytom-odrzanski/Agp3l5VP/</t>
         </is>
       </c>
     </row>
@@ -3057,22 +3057,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -3080,15 +3080,15 @@
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:57</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3096,15 +3096,15 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.09</v>
+        <v>3.3</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:56</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.18</v>
+        <v>3.06</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -3112,16 +3112,16 @@
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:57</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-goczalkowice-zdroj/SYWUqPws/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Slask Wroclaw II</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>02/09/2023 15:37</t>
+          <t>02/09/2023 15:48</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.66</v>
+        <v>3.5</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.63</v>
+        <v>3.46</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>02/09/2023 15:38</t>
+          <t>02/09/2023 15:48</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.31</v>
+        <v>3.16</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.78</v>
+        <v>3.72</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>02/09/2023 15:37</t>
+          <t>02/09/2023 15:48</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-bytom-odrzanski/IucmbFbi/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-goczalkowice-zdroj/Wr1icZDc/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Slask Wroclaw II</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>02/09/2023 15:48</t>
+          <t>02/09/2023 15:37</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.5</v>
+        <v>3.66</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.46</v>
+        <v>3.63</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>02/09/2023 15:48</t>
+          <t>02/09/2023 15:38</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.16</v>
+        <v>3.31</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.72</v>
+        <v>2.78</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>02/09/2023 15:48</t>
+          <t>02/09/2023 15:37</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-goczalkowice-zdroj/Wr1icZDc/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-bytom-odrzanski/IucmbFbi/</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -4169,63 +4169,63 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.88</v>
+        <v>2.38</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.88</v>
+        <v>2.56</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.71</v>
+        <v>3.32</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.74</v>
+        <v>3.33</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>02/09/2023 15:02</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.23</v>
+        <v>2.35</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>01/09/2023 05:13</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>3.23</v>
+        <v>2.41</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>02/09/2023 13:42</t>
+          <t>02/09/2023 16:28</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-starowice-dolne/Q50edgT3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-sleza-wroclaw/MXg4fXcG/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,14 +4261,14 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.74</v>
+        <v>2.5</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.97</v>
+        <v>2.54</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>02/09/2023 15:47</t>
+          <t>02/09/2023 16:58</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.44</v>
+        <v>3.29</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.5</v>
+        <v>3.46</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>02/09/2023 15:47</t>
+          <t>02/09/2023 16:58</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.55</v>
+        <v>2.26</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>3.19</v>
+        <v>2.37</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>02/09/2023 15:47</t>
+          <t>02/09/2023 16:58</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-warta-gorzow/GzJ4ZVLj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-carina-gubin/0Oh8giDM/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Carina Gubin</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
       <c r="J43" t="n">
-        <v>2.5</v>
+        <v>1.88</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.54</v>
+        <v>1.88</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:58</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.29</v>
+        <v>3.71</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.46</v>
+        <v>3.74</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:58</t>
+          <t>02/09/2023 15:02</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>2.26</v>
+        <v>3.23</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>01/09/2023 05:13</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.37</v>
+        <v>3.23</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>02/09/2023 16:58</t>
+          <t>02/09/2023 13:42</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-carina-gubin/0Oh8giDM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-starowice-dolne/Q50edgT3/</t>
         </is>
       </c>
     </row>
@@ -4437,22 +4437,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>2.38</v>
+        <v>1.74</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.56</v>
+        <v>1.97</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 15:47</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 15:47</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.35</v>
+        <v>3.55</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.41</v>
+        <v>3.19</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>02/09/2023 16:28</t>
+          <t>02/09/2023 15:47</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-sleza-wroclaw/MXg4fXcG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-warta-gorzow/GzJ4ZVLj/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.54</v>
+        <v>1.58</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.31</v>
+        <v>1.71</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>09/09/2023 15:34</t>
+          <t>09/09/2023 15:56</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.14</v>
+        <v>3.95</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.25</v>
+        <v>3.98</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>09/09/2023 14:05</t>
+          <t>09/09/2023 15:56</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.74</v>
+        <v>3.7</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>09/09/2023 15:34</t>
+          <t>09/09/2023 15:55</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-polkowice/8lIo7AsM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-stilon-gorzow/jgXnn95d/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.58</v>
+        <v>2.54</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.71</v>
+        <v>2.31</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:56</t>
+          <t>09/09/2023 15:34</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.95</v>
+        <v>3.14</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.98</v>
+        <v>3.25</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:56</t>
+          <t>09/09/2023 14:05</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.7</v>
+        <v>2.74</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:55</t>
+          <t>09/09/2023 15:34</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-stilon-gorzow/jgXnn95d/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-polkowice/8lIo7AsM/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J61" t="n">
-        <v>2.72</v>
+        <v>1.94</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>23/09/2023 12:49</t>
+          <t>23/09/2023 11:44</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.37</v>
+        <v>3.47</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.57</v>
+        <v>3.53</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>23/09/2023 12:44</t>
+          <t>23/09/2023 11:44</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.07</v>
+        <v>2.99</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.36</v>
+        <v>2.77</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>23/09/2023 12:49</t>
+          <t>23/09/2023 11:44</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-rekord-bielsko-biala/OzaiERlk/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-stilon-gorzow/K2h0C5J1/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>1.94</v>
+        <v>2.72</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.17</v>
+        <v>2.5</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>23/09/2023 11:44</t>
+          <t>23/09/2023 12:49</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.47</v>
+        <v>3.37</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.53</v>
+        <v>3.57</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>23/09/2023 11:44</t>
+          <t>23/09/2023 12:44</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.99</v>
+        <v>2.07</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.77</v>
+        <v>2.36</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>23/09/2023 11:44</t>
+          <t>23/09/2023 12:49</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-stilon-gorzow/K2h0C5J1/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-rekord-bielsko-biala/OzaiERlk/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,22 +7941,22 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.59</v>
+        <v>2.01</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.57</v>
+        <v>2.01</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
@@ -7964,15 +7964,15 @@
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.96</v>
+        <v>3.33</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.22</v>
+        <v>3.63</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -7980,15 +7980,15 @@
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.14</v>
+        <v>2.95</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.28</v>
+        <v>3.01</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-unia-turza-slaska/zyK8uP4o/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-warta-gorzow/OdjjNskH/</t>
         </is>
       </c>
     </row>
@@ -8025,46 +8025,46 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J83" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.77</v>
+        <v>3.96</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.36</v>
+        <v>4.22</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -8072,15 +8072,15 @@
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.87</v>
+        <v>4.14</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.21</v>
+        <v>4.28</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-starowice-dolne/YVuQGuSp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-unia-turza-slaska/zyK8uP4o/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>1.93</v>
+        <v>1.6</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>3.1</v>
+        <v>1.56</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:58</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.4</v>
+        <v>3.77</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.6</v>
+        <v>4.36</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.99</v>
+        <v>3.87</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>1.98</v>
+        <v>4.21</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-polkowice/Y7cwQq5b/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-starowice-dolne/YVuQGuSp/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J85" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.01</v>
+        <v>3.1</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.63</v>
+        <v>3.6</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.01</v>
+        <v>1.98</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-warta-gorzow/OdjjNskH/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-polkowice/Y7cwQq5b/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>3.43</v>
+        <v>2.13</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.07</v>
+        <v>2.18</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:40</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.57</v>
+        <v>3.26</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:40</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>1.74</v>
+        <v>2.7</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:40</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-rekord-bielsko-biala/x0GPys4A/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-zielona-gora/OGIyZvlT/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>2.13</v>
+        <v>3.43</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.18</v>
+        <v>3.07</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>21/10/2023 14:40</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.26</v>
+        <v>3.57</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>21/10/2023 14:40</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.7</v>
+        <v>1.74</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>21/10/2023 14:40</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-zielona-gora/OGIyZvlT/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-rekord-bielsko-biala/x0GPys4A/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1.78</v>
+        <v>2.29</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.73</v>
+        <v>2.35</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>27/10/2023 16:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.57</v>
+        <v>3.3</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.69</v>
+        <v>3.25</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>28/10/2023 12:01</t>
+          <t>28/10/2023 13:02</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.28</v>
+        <v>2.46</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.84</v>
+        <v>2.68</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>27/10/2023 16:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-starowice-dolne/dYEosxtj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-gwarek-tarnowskie-gory/ADz3k0Y9/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.29</v>
+        <v>1.78</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.35</v>
+        <v>1.73</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>27/10/2023 16:55</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.3</v>
+        <v>3.57</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.25</v>
+        <v>3.69</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>28/10/2023 13:02</t>
+          <t>28/10/2023 12:01</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.46</v>
+        <v>3.28</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.68</v>
+        <v>3.84</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>27/10/2023 16:55</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-gwarek-tarnowskie-gory/ADz3k0Y9/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-starowice-dolne/dYEosxtj/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="G103" t="n">
+        <v>1</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Goczalkowice Zdroj</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>Polkowice</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
-        <v>1</v>
-      </c>
       <c r="J103" t="n">
-        <v>2.45</v>
+        <v>2.16</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.42</v>
+        <v>2.15</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>28/10/2023 11:38</t>
+          <t>29/10/2023 11:35</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.26</v>
+        <v>3.32</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.38</v>
+        <v>3.46</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>29/10/2023 12:03</t>
+          <t>29/10/2023 12:01</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>2.36</v>
+        <v>2.68</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.49</v>
+        <v>2.81</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>28/10/2023 11:38</t>
+          <t>29/10/2023 11:35</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-polkowice/dAWbjtJ3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-goczalkowice-zdroj/2BFsrIQq/</t>
         </is>
       </c>
     </row>
@@ -9957,22 +9957,22 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Polkowice</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
         <v>1</v>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>Goczalkowice Zdroj</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
       <c r="J104" t="n">
-        <v>2.16</v>
+        <v>2.45</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.15</v>
+        <v>2.42</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>29/10/2023 11:35</t>
+          <t>28/10/2023 11:38</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.32</v>
+        <v>3.26</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.46</v>
+        <v>3.38</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>29/10/2023 12:01</t>
+          <t>29/10/2023 12:03</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>2.68</v>
+        <v>2.36</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>2.81</v>
+        <v>2.49</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>29/10/2023 11:35</t>
+          <t>28/10/2023 11:38</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-goczalkowice-zdroj/2BFsrIQq/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-polkowice/dAWbjtJ3/</t>
         </is>
       </c>
     </row>
@@ -10325,71 +10325,71 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Jelenia Gora</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>2.6</v>
+        <v>2.41</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>04/11/2023 13:10</t>
+          <t>04/11/2023 13:42</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.37</v>
+        <v>3.17</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.42</v>
+        <v>3.16</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>04/11/2023 13:10</t>
+          <t>04/11/2023 13:21</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.72</v>
+        <v>2.87</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>04/11/2023 13:10</t>
+          <t>04/11/2023 13:42</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-karkonosze-jelenia-gora/OxSDpBnr/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-carina-gubin/4lFu3J29/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Slask Wroclaw II</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Rakow II</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>04/11/2023 13:06</t>
+          <t>04/11/2023 13:09</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.53</v>
+        <v>3.96</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.78</v>
+        <v>3.99</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>04/11/2023 13:06</t>
+          <t>04/11/2023 13:09</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.87</v>
+        <v>4.1</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>04/11/2023 13:06</t>
+          <t>04/11/2023 13:09</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-rks-rakow-czestochowa/AgUPs9W0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-zielona-gora/W2VLrkHf/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.59</v>
+        <v>2.6</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.57</v>
+        <v>2.25</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:10</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.85</v>
+        <v>3.37</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>4.07</v>
+        <v>3.42</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:10</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>3.83</v>
+        <v>2.31</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>4.49</v>
+        <v>2.72</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:10</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-stilon-gorzow/xtWHqV1l/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-karkonosze-jelenia-gora/OxSDpBnr/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Slask Wroclaw II</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Rakow II</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:09</t>
+          <t>04/11/2023 13:06</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.96</v>
+        <v>3.53</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.99</v>
+        <v>3.78</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:09</t>
+          <t>04/11/2023 13:06</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.1</v>
+        <v>2.87</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:09</t>
+          <t>04/11/2023 13:06</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-zielona-gora/W2VLrkHf/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-rks-rakow-czestochowa/AgUPs9W0/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G112" t="n">
+        <v>3</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Stilon Gorzow</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
         <v>2</v>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Carina Gubin</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
       <c r="J112" t="n">
-        <v>2.41</v>
+        <v>1.59</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.27</v>
+        <v>1.57</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>04/11/2023 13:42</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.17</v>
+        <v>3.85</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.16</v>
+        <v>4.07</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>04/11/2023 13:21</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>2.4</v>
+        <v>3.83</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>2.87</v>
+        <v>4.49</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>04/11/2023 13:42</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-carina-gubin/4lFu3J29/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-stilon-gorzow/xtWHqV1l/</t>
         </is>
       </c>
     </row>
@@ -10942,6 +10942,650 @@
       <c r="V114" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-rks-rakow-czestochowa/j5oNtTo7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45241.5</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Goczalkowice Zdroj</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:30</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:24</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:30</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-goczalkowice-zdroj/WO6deS00/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Stilon Gorzow</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw II</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:17</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:17</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:17</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-slask-wroclaw/raY84WwE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Unia Turza Slaska</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Bytom Odrzanski</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:23</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:23</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:23</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-bytom-odrzanski/l0Hid8of/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Bielsko-Biala</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>3</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Gwarek Tarnowskie Gory</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:44</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:44</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>7.09</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:44</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-gwarek-tarnowskie-gory/vRRH2A8Q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Carina Gubin</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze II</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>2</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-gornik-zabrze/tzEqbUGs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Zielona Gora</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Pawlowice</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>11/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:04</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>11/11/2023 08:02</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-pniowek-pawlowice/UepRum1D/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45241.5625</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sleza Wroclaw</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>4</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Warta Gorzow</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:20</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:20</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:20</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-warta-gorzow/A9ImclWm/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V121"/>
+  <dimension ref="A1:V122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Jelenia Gora</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>1.88</v>
+        <v>3.95</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.25</v>
+        <v>4.67</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.52</v>
+        <v>3.77</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.2</v>
+        <v>4.04</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.26</v>
+        <v>1.58</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.88</v>
+        <v>1.55</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-karkonosze-jelenia-gora/xQaGA45B/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-rekord-bielsko-biala/8jeCBpj5/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>3.95</v>
+        <v>1.88</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>4.67</v>
+        <v>2.25</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.77</v>
+        <v>3.52</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.04</v>
+        <v>3.2</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>1.58</v>
+        <v>3.26</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1.55</v>
+        <v>2.88</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-rekord-bielsko-biala/8jeCBpj5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-karkonosze-jelenia-gora/xQaGA45B/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Warta Gorzow</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>2</v>
-      </c>
       <c r="J82" t="n">
-        <v>2.01</v>
+        <v>1.6</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,48 +7956,48 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.01</v>
+        <v>1.56</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
+          <t>14/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
           <t>14/10/2023 14:59</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="O82" t="inlineStr">
+      <c r="R82" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S82" t="inlineStr">
         <is>
           <t>13/10/2023 02:13</t>
         </is>
       </c>
-      <c r="P82" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="Q82" t="inlineStr">
+      <c r="T82" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="U82" t="inlineStr">
         <is>
           <t>14/10/2023 14:59</t>
         </is>
       </c>
-      <c r="R82" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>13/10/2023 02:13</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>14/10/2023 14:59</t>
-        </is>
-      </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-warta-gorzow/OdjjNskH/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-starowice-dolne/YVuQGuSp/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J83" t="n">
-        <v>1.59</v>
+        <v>1.93</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.57</v>
+        <v>3.1</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.96</v>
+        <v>3.4</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.22</v>
+        <v>3.6</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>4.14</v>
+        <v>2.99</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.28</v>
+        <v>1.98</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-unia-turza-slaska/zyK8uP4o/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-polkowice/Y7cwQq5b/</t>
         </is>
       </c>
     </row>
@@ -8117,46 +8117,46 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.77</v>
+        <v>3.96</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="P84" t="n">
-        <v>4.36</v>
+        <v>4.22</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
@@ -8164,15 +8164,15 @@
         </is>
       </c>
       <c r="R84" t="n">
-        <v>3.87</v>
+        <v>4.14</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="T84" t="n">
-        <v>4.21</v>
+        <v>4.28</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
@@ -8181,7 +8181,7 @@
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-starowice-dolne/YVuQGuSp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-unia-turza-slaska/zyK8uP4o/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Warta Gorzow</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>2</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Polkowice</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>5</v>
-      </c>
       <c r="J85" t="n">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.1</v>
+        <v>2.01</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.4</v>
+        <v>3.33</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.6</v>
+        <v>3.63</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>1.98</v>
+        <v>3.01</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-polkowice/Y7cwQq5b/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-warta-gorzow/OdjjNskH/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>1.76</v>
+        <v>3.33</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.83</v>
+        <v>4.45</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>21/10/2023 12:03</t>
+          <t>21/10/2023 12:56</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.41</v>
+        <v>3.75</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.47</v>
+        <v>4.27</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>21/10/2023 12:03</t>
+          <t>21/10/2023 12:56</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.46</v>
+        <v>1.72</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>3.67</v>
+        <v>1.54</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>21/10/2023 12:03</t>
+          <t>21/10/2023 12:56</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-carina-gubin/KOLKxNl4/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-sleza-wroclaw/tYMGw3Zc/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>3.33</v>
+        <v>1.76</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>4.45</v>
+        <v>1.83</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>21/10/2023 12:56</t>
+          <t>21/10/2023 12:03</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.75</v>
+        <v>3.41</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>4.27</v>
+        <v>3.47</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>21/10/2023 12:56</t>
+          <t>21/10/2023 12:03</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>1.72</v>
+        <v>3.46</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.54</v>
+        <v>3.67</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>21/10/2023 12:56</t>
+          <t>21/10/2023 12:03</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-sleza-wroclaw/tYMGw3Zc/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-carina-gubin/KOLKxNl4/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>2.51</v>
+        <v>3.5</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>3.44</v>
+        <v>4.03</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.39</v>
+        <v>3.73</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.82</v>
+        <v>4</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:57</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>2.2</v>
+        <v>1.68</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:57</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-sleza-wroclaw/zFAy4am3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-kluczbork/fJXltded/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>3.5</v>
+        <v>2.51</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>4.03</v>
+        <v>3.44</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.73</v>
+        <v>3.39</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>4</v>
+        <v>3.82</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>04/11/2023 11:57</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>04/11/2023 11:57</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-kluczbork/fJXltded/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-sleza-wroclaw/zFAy4am3/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Rakow II</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>2.41</v>
+        <v>1.93</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.27</v>
+        <v>1.88</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>04/11/2023 13:42</t>
+          <t>04/11/2023 13:06</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.17</v>
+        <v>3.53</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.16</v>
+        <v>3.78</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>04/11/2023 13:21</t>
+          <t>04/11/2023 13:06</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.4</v>
+        <v>2.87</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.87</v>
+        <v>3.25</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>04/11/2023 13:42</t>
+          <t>04/11/2023 13:06</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-carina-gubin/4lFu3J29/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-rks-rakow-czestochowa/AgUPs9W0/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Slask Wroclaw II</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>04/11/2023 13:09</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.96</v>
+        <v>3.85</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.99</v>
+        <v>4.07</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>04/11/2023 13:09</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>4.1</v>
+        <v>3.83</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.9</v>
+        <v>4.49</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>04/11/2023 13:09</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-zielona-gora/W2VLrkHf/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-stilon-gorzow/xtWHqV1l/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Slask Wroclaw II</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Jelenia Gora</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>2.6</v>
+        <v>1.53</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:10</t>
+          <t>04/11/2023 13:09</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.37</v>
+        <v>3.96</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.42</v>
+        <v>3.99</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:10</t>
+          <t>04/11/2023 13:09</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.31</v>
+        <v>4.1</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2.72</v>
+        <v>3.9</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:10</t>
+          <t>04/11/2023 13:09</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-karkonosze-jelenia-gora/OxSDpBnr/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-zielona-gora/W2VLrkHf/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rakow II</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.93</v>
+        <v>2.41</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.88</v>
+        <v>2.27</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:06</t>
+          <t>04/11/2023 13:42</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.53</v>
+        <v>3.17</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,32 +10640,32 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.78</v>
+        <v>3.16</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:06</t>
+          <t>04/11/2023 13:21</t>
         </is>
       </c>
       <c r="R111" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
         <v>2.87</v>
       </c>
-      <c r="S111" t="inlineStr">
-        <is>
-          <t>03/11/2023 02:13</t>
-        </is>
-      </c>
-      <c r="T111" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:06</t>
+          <t>04/11/2023 13:42</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-rks-rakow-czestochowa/AgUPs9W0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-carina-gubin/4lFu3J29/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.59</v>
+        <v>2.6</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.57</v>
+        <v>2.25</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:10</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.85</v>
+        <v>3.37</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>4.07</v>
+        <v>3.42</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:10</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.83</v>
+        <v>2.31</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>4.49</v>
+        <v>2.72</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:10</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-stilon-gorzow/xtWHqV1l/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-karkonosze-jelenia-gora/OxSDpBnr/</t>
         </is>
       </c>
     </row>
@@ -11061,71 +11061,71 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Slask Wroclaw II</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:23</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
         <v>3.41</v>
       </c>
-      <c r="K116" t="inlineStr">
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:23</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S116" t="inlineStr">
         <is>
           <t>11/11/2023 02:12</t>
         </is>
       </c>
-      <c r="L116" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>11/11/2023 12:17</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="O116" t="inlineStr">
-        <is>
-          <t>11/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P116" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q116" t="inlineStr">
-        <is>
-          <t>11/11/2023 12:17</t>
-        </is>
-      </c>
-      <c r="R116" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S116" t="inlineStr">
-        <is>
-          <t>11/11/2023 02:12</t>
-        </is>
-      </c>
       <c r="T116" t="n">
-        <v>1.87</v>
+        <v>3.15</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>11/11/2023 12:17</t>
+          <t>11/11/2023 12:23</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-slask-wroclaw/raY84WwE/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-bytom-odrzanski/l0Hid8of/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Slask Wroclaw II</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>1.93</v>
+        <v>3.41</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.02</v>
+        <v>3.3</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>11/11/2023 12:23</t>
+          <t>11/11/2023 12:17</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.61</v>
+        <v>3.87</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.41</v>
+        <v>3.74</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>11/11/2023 12:23</t>
+          <t>11/11/2023 12:17</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.05</v>
+        <v>1.75</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>3.15</v>
+        <v>1.87</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>11/11/2023 12:23</t>
+          <t>11/11/2023 12:17</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-bytom-odrzanski/l0Hid8of/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-slask-wroclaw/raY84WwE/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>1.25</v>
+        <v>2.06</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.37</v>
+        <v>1.84</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>11/11/2023 12:44</t>
+          <t>11/11/2023 08:02</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>5.43</v>
+        <v>3.48</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>5.47</v>
+        <v>3.59</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>11/11/2023 12:44</t>
+          <t>11/11/2023 11:04</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>7.09</v>
+        <v>2.87</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>5.17</v>
+        <v>3.47</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>11/11/2023 12:44</t>
+          <t>11/11/2023 08:02</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-gwarek-tarnowskie-gory/vRRH2A8Q/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-pniowek-pawlowice/UepRum1D/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="G119" t="n">
+        <v>3</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Gwarek Tarnowskie Gory</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
         <v>1</v>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Gornik Zabrze II</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
-        <v>2</v>
-      </c>
       <c r="J119" t="n">
-        <v>2.12</v>
+        <v>1.25</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.31</v>
+        <v>1.37</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 12:44</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.58</v>
+        <v>5.43</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.52</v>
+        <v>5.47</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 12:44</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.7</v>
+        <v>7.09</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.58</v>
+        <v>5.17</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 12:44</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-gornik-zabrze/tzEqbUGs/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-gwarek-tarnowskie-gory/vRRH2A8Q/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,63 +11437,63 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.84</v>
+        <v>2.31</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>11/11/2023 08:02</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.48</v>
+        <v>3.58</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.59</v>
+        <v>3.52</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>11/11/2023 11:04</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>3.47</v>
+        <v>2.58</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>11/11/2023 08:02</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-pniowek-pawlowice/UepRum1D/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-gornik-zabrze/tzEqbUGs/</t>
         </is>
       </c>
     </row>
@@ -11586,6 +11586,98 @@
       <c r="V121" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-warta-gorzow/A9ImclWm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45241.70833333334</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Jelenia Gora</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Polkowice</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:56</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:04</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:56</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/karkonosze-jelenia-gora-polkowice/d2xD3jgK/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V122"/>
+  <dimension ref="A1:V123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>3.95</v>
+        <v>1.88</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4.67</v>
+        <v>2.25</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.77</v>
+        <v>3.52</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.04</v>
+        <v>3.2</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>1.58</v>
+        <v>3.26</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.55</v>
+        <v>2.88</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-rekord-bielsko-biala/8jeCBpj5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-karkonosze-jelenia-gora/xQaGA45B/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Jelenia Gora</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
-        <v>1.88</v>
+        <v>3.95</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.25</v>
+        <v>4.67</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.52</v>
+        <v>3.77</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.2</v>
+        <v>4.04</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.26</v>
+        <v>1.58</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.88</v>
+        <v>1.55</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-karkonosze-jelenia-gora/xQaGA45B/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-rekord-bielsko-biala/8jeCBpj5/</t>
         </is>
       </c>
     </row>
@@ -7933,22 +7933,22 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.6</v>
+        <v>2.01</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.56</v>
+        <v>2.01</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>14/10/2023 14:58</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.77</v>
+        <v>3.33</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,7 +7972,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.36</v>
+        <v>3.63</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -7980,7 +7980,7 @@
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.87</v>
+        <v>2.95</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.21</v>
+        <v>3.01</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-starowice-dolne/YVuQGuSp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-warta-gorzow/OdjjNskH/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J83" t="n">
-        <v>1.93</v>
+        <v>1.59</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>3.1</v>
+        <v>1.57</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.4</v>
+        <v>3.96</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.6</v>
+        <v>4.22</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.99</v>
+        <v>4.14</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>13/10/2023 02:13</t>
+          <t>14/10/2023 09:43</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>1.98</v>
+        <v>4.28</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>14/10/2023 14:40</t>
+          <t>14/10/2023 14:59</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-polkowice/Y7cwQq5b/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-unia-turza-slaska/zyK8uP4o/</t>
         </is>
       </c>
     </row>
@@ -8117,71 +8117,71 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Unia Turza Slaska</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
       <c r="J84" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>14/10/2023 09:43</t>
+          <t>13/10/2023 02:13</t>
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
+          <t>14/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
           <t>14/10/2023 14:59</t>
         </is>
       </c>
-      <c r="N84" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>14/10/2023 09:43</t>
-        </is>
-      </c>
-      <c r="P84" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="Q84" t="inlineStr">
+      <c r="R84" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="U84" t="inlineStr">
         <is>
           <t>14/10/2023 14:59</t>
         </is>
       </c>
-      <c r="R84" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="S84" t="inlineStr">
-        <is>
-          <t>14/10/2023 09:43</t>
-        </is>
-      </c>
-      <c r="T84" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>14/10/2023 14:59</t>
-        </is>
-      </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-unia-turza-slaska/zyK8uP4o/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-starowice-dolne/YVuQGuSp/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J85" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.01</v>
+        <v>3.1</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.63</v>
+        <v>3.6</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.95</v>
+        <v>2.99</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.01</v>
+        <v>1.98</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>14/10/2023 14:59</t>
+          <t>14/10/2023 14:40</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-warta-gorzow/OdjjNskH/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-polkowice/Y7cwQq5b/</t>
         </is>
       </c>
     </row>
@@ -10049,22 +10049,22 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>3.5</v>
+        <v>2.51</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>4.03</v>
+        <v>3.44</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>04/11/2023 11:51</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.73</v>
+        <v>3.39</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>4</v>
+        <v>3.82</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>04/11/2023 11:57</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>04/11/2023 11:57</t>
+          <t>04/11/2023 11:59</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-kluczbork/fJXltded/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-sleza-wroclaw/zFAy4am3/</t>
         </is>
       </c>
     </row>
@@ -10141,22 +10141,22 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>2.51</v>
+        <v>3.5</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -10164,15 +10164,15 @@
         </is>
       </c>
       <c r="L106" t="n">
-        <v>3.44</v>
+        <v>4.03</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:51</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.39</v>
+        <v>3.73</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
@@ -10180,15 +10180,15 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.82</v>
+        <v>4</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:57</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>2.2</v>
+        <v>1.68</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -10196,16 +10196,16 @@
         </is>
       </c>
       <c r="T106" t="n">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>04/11/2023 11:59</t>
+          <t>04/11/2023 11:57</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-sleza-wroclaw/zFAy4am3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-kluczbork/fJXltded/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rakow II</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>1.93</v>
+        <v>2.41</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.88</v>
+        <v>2.27</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>04/11/2023 13:06</t>
+          <t>04/11/2023 13:42</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.53</v>
+        <v>3.17</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,32 +10364,32 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.78</v>
+        <v>3.16</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>04/11/2023 13:06</t>
+          <t>04/11/2023 13:21</t>
         </is>
       </c>
       <c r="R108" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>03/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
         <v>2.87</v>
       </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>03/11/2023 02:13</t>
-        </is>
-      </c>
-      <c r="T108" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>04/11/2023 13:06</t>
+          <t>04/11/2023 13:42</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-rks-rakow-czestochowa/AgUPs9W0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-carina-gubin/4lFu3J29/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Slask Wroclaw II</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:09</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.85</v>
+        <v>3.96</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>4.07</v>
+        <v>3.99</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:09</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.83</v>
+        <v>4.1</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>4.49</v>
+        <v>3.9</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:09</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-stilon-gorzow/xtWHqV1l/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-zielona-gora/W2VLrkHf/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Slask Wroclaw II</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>1.53</v>
+        <v>2.6</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:09</t>
+          <t>04/11/2023 13:10</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.96</v>
+        <v>3.37</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.99</v>
+        <v>3.42</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:09</t>
+          <t>04/11/2023 13:10</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>4.1</v>
+        <v>2.31</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.9</v>
+        <v>2.72</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:09</t>
+          <t>04/11/2023 13:10</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-zielona-gora/W2VLrkHf/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-karkonosze-jelenia-gora/OxSDpBnr/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Rakow II</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>2.41</v>
+        <v>1.93</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>2.27</v>
+        <v>1.88</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:42</t>
+          <t>04/11/2023 13:06</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.17</v>
+        <v>3.53</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.16</v>
+        <v>3.78</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:21</t>
+          <t>04/11/2023 13:06</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>2.4</v>
+        <v>2.87</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>2.87</v>
+        <v>3.25</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:42</t>
+          <t>04/11/2023 13:06</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-carina-gubin/4lFu3J29/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-rks-rakow-czestochowa/AgUPs9W0/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Jelenia Gora</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>2.6</v>
+        <v>1.59</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.25</v>
+        <v>1.57</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>04/11/2023 13:10</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.37</v>
+        <v>3.85</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.42</v>
+        <v>4.07</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>04/11/2023 13:10</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>2.31</v>
+        <v>3.83</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>2.72</v>
+        <v>4.49</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>04/11/2023 13:10</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-karkonosze-jelenia-gora/OxSDpBnr/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-stilon-gorzow/xtWHqV1l/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Slask Wroclaw II</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.93</v>
+        <v>3.41</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.02</v>
+        <v>3.3</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>11/11/2023 12:23</t>
+          <t>11/11/2023 12:17</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.61</v>
+        <v>3.87</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.41</v>
+        <v>3.74</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>11/11/2023 12:23</t>
+          <t>11/11/2023 12:17</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>3.05</v>
+        <v>1.75</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>3.15</v>
+        <v>1.87</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>11/11/2023 12:23</t>
+          <t>11/11/2023 12:17</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-bytom-odrzanski/l0Hid8of/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-slask-wroclaw/raY84WwE/</t>
         </is>
       </c>
     </row>
@@ -11153,71 +11153,71 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Slask Wroclaw II</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:23</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
         <v>3.41</v>
       </c>
-      <c r="K117" t="inlineStr">
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:23</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S117" t="inlineStr">
         <is>
           <t>11/11/2023 02:12</t>
         </is>
       </c>
-      <c r="L117" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>11/11/2023 12:17</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="O117" t="inlineStr">
-        <is>
-          <t>11/11/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P117" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="Q117" t="inlineStr">
-        <is>
-          <t>11/11/2023 12:17</t>
-        </is>
-      </c>
-      <c r="R117" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S117" t="inlineStr">
-        <is>
-          <t>11/11/2023 02:12</t>
-        </is>
-      </c>
       <c r="T117" t="n">
-        <v>1.87</v>
+        <v>3.15</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>11/11/2023 12:17</t>
+          <t>11/11/2023 12:23</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-slask-wroclaw/raY84WwE/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-bytom-odrzanski/l0Hid8of/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>2.06</v>
+        <v>1.25</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.84</v>
+        <v>1.37</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>11/11/2023 08:02</t>
+          <t>11/11/2023 12:44</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.48</v>
+        <v>5.43</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.59</v>
+        <v>5.47</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>11/11/2023 11:04</t>
+          <t>11/11/2023 12:44</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.87</v>
+        <v>7.09</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>3.47</v>
+        <v>5.17</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>11/11/2023 08:02</t>
+          <t>11/11/2023 12:44</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-pniowek-pawlowice/UepRum1D/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-gwarek-tarnowskie-gory/vRRH2A8Q/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>1.25</v>
+        <v>2.12</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.37</v>
+        <v>2.31</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>11/11/2023 12:44</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>5.43</v>
+        <v>3.58</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>5.47</v>
+        <v>3.52</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>11/11/2023 12:44</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>7.09</v>
+        <v>2.7</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>5.17</v>
+        <v>2.58</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>11/11/2023 12:44</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-gwarek-tarnowskie-gory/vRRH2A8Q/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-gornik-zabrze/tzEqbUGs/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,63 +11437,63 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.31</v>
+        <v>1.84</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 08:02</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.58</v>
+        <v>3.48</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.52</v>
+        <v>3.59</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 11:04</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.58</v>
+        <v>3.47</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 08:02</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-gornik-zabrze/tzEqbUGs/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-pniowek-pawlowice/UepRum1D/</t>
         </is>
       </c>
     </row>
@@ -11678,6 +11678,98 @@
       <c r="V122" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/karkonosze-jelenia-gora-polkowice/d2xD3jgK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45244.70833333334</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Kluczbork</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>2</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Unia Turza Slaska</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>21/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>14/11/2023 16:54</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>21/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>14/11/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>21/10/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>14/11/2023 16:54</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-unia-turza-slaska/nBNCvqKi/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V123"/>
+  <dimension ref="A1:V130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2965,46 +2965,46 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.7</v>
+        <v>1.93</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:07</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.77</v>
+        <v>3.29</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.93</v>
+        <v>3.3</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -3012,11 +3012,11 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.7</v>
+        <v>3.06</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T28" t="n">
@@ -3024,12 +3024,12 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:07</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-bytom-odrzanski/Agp3l5VP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-goczalkowice-zdroj/SYWUqPws/</t>
         </is>
       </c>
     </row>
@@ -3057,58 +3057,58 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.2</v>
+        <v>1.99</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
+          <t>23/08/2023 16:07</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>23/08/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
           <t>23/08/2023 16:06</t>
         </is>
       </c>
-      <c r="N29" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>22/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="P29" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>23/08/2023 16:06</t>
-        </is>
-      </c>
       <c r="R29" t="n">
-        <v>3.06</v>
+        <v>3.7</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T29" t="n">
@@ -3116,12 +3116,12 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:07</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-goczalkowice-zdroj/SYWUqPws/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-bytom-odrzanski/Agp3l5VP/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.58</v>
+        <v>2.54</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.71</v>
+        <v>2.31</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>09/09/2023 15:56</t>
+          <t>09/09/2023 15:34</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.95</v>
+        <v>3.14</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.98</v>
+        <v>3.25</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>09/09/2023 15:56</t>
+          <t>09/09/2023 14:05</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.7</v>
+        <v>2.74</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>09/09/2023 15:55</t>
+          <t>09/09/2023 15:34</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-stilon-gorzow/jgXnn95d/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-polkowice/8lIo7AsM/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2.54</v>
+        <v>1.58</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>2.31</v>
+        <v>1.71</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:34</t>
+          <t>09/09/2023 15:56</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.14</v>
+        <v>3.95</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.25</v>
+        <v>3.98</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>09/09/2023 14:05</t>
+          <t>09/09/2023 15:56</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>2.74</v>
+        <v>3.7</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:34</t>
+          <t>09/09/2023 15:55</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-polkowice/8lIo7AsM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-stilon-gorzow/jgXnn95d/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>1.94</v>
+        <v>2.72</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.17</v>
+        <v>2.5</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>23/09/2023 11:44</t>
+          <t>23/09/2023 12:49</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.47</v>
+        <v>3.37</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.53</v>
+        <v>3.57</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>23/09/2023 11:44</t>
+          <t>23/09/2023 12:44</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.99</v>
+        <v>2.07</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.77</v>
+        <v>2.36</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>23/09/2023 11:44</t>
+          <t>23/09/2023 12:49</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-stilon-gorzow/K2h0C5J1/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-rekord-bielsko-biala/OzaiERlk/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J62" t="n">
-        <v>2.72</v>
+        <v>1.94</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>23/09/2023 12:49</t>
+          <t>23/09/2023 11:44</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.37</v>
+        <v>3.47</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.57</v>
+        <v>3.53</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>23/09/2023 12:44</t>
+          <t>23/09/2023 11:44</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.07</v>
+        <v>2.99</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.36</v>
+        <v>2.77</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>23/09/2023 12:49</t>
+          <t>23/09/2023 11:44</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-rekord-bielsko-biala/OzaiERlk/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-stilon-gorzow/K2h0C5J1/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>2.04</v>
+        <v>2.47</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.34</v>
+        <v>2.99</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>23/09/2023 13:57</t>
+          <t>23/09/2023 13:36</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.18</v>
+        <v>3.1</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.04</v>
+        <v>3.45</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>23/09/2023 13:51</t>
+          <t>23/09/2023 13:36</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.91</v>
+        <v>2.36</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.87</v>
+        <v>2.08</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>23/09/2023 13:57</t>
+          <t>23/09/2023 13:36</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-zielona-gora/bgi4BPY7/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-pniowek-pawlowice/QaqjZSQE/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2.47</v>
+        <v>2.04</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.99</v>
+        <v>2.34</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>23/09/2023 13:36</t>
+          <t>23/09/2023 13:57</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.1</v>
+        <v>3.18</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.45</v>
+        <v>3.04</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>23/09/2023 13:36</t>
+          <t>23/09/2023 13:51</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.36</v>
+        <v>2.91</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.08</v>
+        <v>2.87</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>23/09/2023 13:36</t>
+          <t>23/09/2023 13:57</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-pniowek-pawlowice/QaqjZSQE/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-zielona-gora/bgi4BPY7/</t>
         </is>
       </c>
     </row>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6745,14 +6745,14 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.43</v>
+        <v>2.53</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,7 +6760,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.47</v>
+        <v>2.9</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.32</v>
+        <v>3.16</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,7 +6776,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.68</v>
+        <v>3.45</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
@@ -6784,7 +6784,7 @@
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.31</v>
+        <v>2.3</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-goczalkowice-zdroj/QTAoO2ID/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>2.53</v>
+        <v>2.3</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.16</v>
+        <v>3.21</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>2.12</v>
+        <v>2.97</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-goczalkowice-zdroj/QTAoO2ID/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J72" t="n">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.05</v>
+        <v>2.47</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.21</v>
+        <v>3.32</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.55</v>
+        <v>3.68</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.5</v>
+        <v>2.31</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.97</v>
+        <v>2.34</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Jelenia Gora</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>1.88</v>
+        <v>3.95</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.25</v>
+        <v>4.67</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.52</v>
+        <v>3.77</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.2</v>
+        <v>4.04</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.26</v>
+        <v>1.58</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.88</v>
+        <v>1.55</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-karkonosze-jelenia-gora/xQaGA45B/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-rekord-bielsko-biala/8jeCBpj5/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>3.95</v>
+        <v>1.88</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>4.67</v>
+        <v>2.25</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.77</v>
+        <v>3.52</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>4.04</v>
+        <v>3.2</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>1.58</v>
+        <v>3.26</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>1.55</v>
+        <v>2.88</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-rekord-bielsko-biala/8jeCBpj5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-karkonosze-jelenia-gora/xQaGA45B/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>2.13</v>
+        <v>3.43</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.18</v>
+        <v>3.07</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>21/10/2023 14:40</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.26</v>
+        <v>3.57</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.47</v>
+        <v>3.42</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>21/10/2023 14:40</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.7</v>
+        <v>1.74</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>21/10/2023 14:40</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-zielona-gora/OGIyZvlT/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-rekord-bielsko-biala/x0GPys4A/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I94" t="n">
         <v>3</v>
       </c>
       <c r="J94" t="n">
-        <v>3.43</v>
+        <v>2.13</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>3.07</v>
+        <v>2.18</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:40</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.57</v>
+        <v>3.26</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:40</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>1.74</v>
+        <v>2.7</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:40</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-rekord-bielsko-biala/x0GPys4A/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-zielona-gora/OGIyZvlT/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.29</v>
+        <v>1.78</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.35</v>
+        <v>1.73</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>27/10/2023 16:55</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.3</v>
+        <v>3.57</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.25</v>
+        <v>3.69</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>28/10/2023 13:02</t>
+          <t>28/10/2023 12:01</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>2.46</v>
+        <v>3.28</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.68</v>
+        <v>3.84</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>27/10/2023 16:55</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-gwarek-tarnowskie-gory/ADz3k0Y9/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-starowice-dolne/dYEosxtj/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>1.78</v>
+        <v>2.29</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.73</v>
+        <v>2.35</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>27/10/2023 16:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.57</v>
+        <v>3.3</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.69</v>
+        <v>3.25</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>28/10/2023 12:01</t>
+          <t>28/10/2023 13:02</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.28</v>
+        <v>2.46</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.84</v>
+        <v>2.68</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>27/10/2023 16:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-starowice-dolne/dYEosxtj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-gwarek-tarnowskie-gory/ADz3k0Y9/</t>
         </is>
       </c>
     </row>
@@ -10417,71 +10417,71 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Slask Wroclaw II</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>1.53</v>
+        <v>2.6</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>04/11/2023 13:09</t>
+          <t>04/11/2023 13:10</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.96</v>
+        <v>3.37</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.99</v>
+        <v>3.42</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>04/11/2023 13:09</t>
+          <t>04/11/2023 13:10</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>4.1</v>
+        <v>2.31</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.9</v>
+        <v>2.72</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>04/11/2023 13:09</t>
+          <t>04/11/2023 13:10</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-zielona-gora/W2VLrkHf/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-karkonosze-jelenia-gora/OxSDpBnr/</t>
         </is>
       </c>
     </row>
@@ -10509,71 +10509,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G110" t="n">
+        <v>3</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Rakow II</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Jelenia Gora</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
       <c r="J110" t="n">
-        <v>2.6</v>
+        <v>1.93</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:10</t>
+          <t>04/11/2023 13:06</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.37</v>
+        <v>3.53</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.42</v>
+        <v>3.78</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:10</t>
+          <t>04/11/2023 13:06</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.31</v>
+        <v>2.87</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:10</t>
+          <t>04/11/2023 13:06</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-karkonosze-jelenia-gora/OxSDpBnr/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-rks-rakow-czestochowa/AgUPs9W0/</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G111" t="n">
@@ -10609,14 +10609,14 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rakow II</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="n">
-        <v>1.93</v>
+        <v>1.59</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:06</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.53</v>
+        <v>3.85</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.78</v>
+        <v>4.07</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:06</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>2.87</v>
+        <v>3.83</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.25</v>
+        <v>4.49</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:06</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-rks-rakow-czestochowa/AgUPs9W0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-stilon-gorzow/xtWHqV1l/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Slask Wroclaw II</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:09</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.85</v>
+        <v>3.96</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>4.07</v>
+        <v>3.99</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:09</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.83</v>
+        <v>4.1</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>4.49</v>
+        <v>3.9</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:09</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-stilon-gorzow/xtWHqV1l/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-zielona-gora/W2VLrkHf/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,14 +11069,14 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Slask Wroclaw II</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="n">
-        <v>3.41</v>
+        <v>2.12</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>3.3</v>
+        <v>2.31</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>11/11/2023 12:17</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.87</v>
+        <v>3.58</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.74</v>
+        <v>3.52</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>11/11/2023 12:17</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>1.75</v>
+        <v>2.7</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>1.87</v>
+        <v>2.58</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>11/11/2023 12:17</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-slask-wroclaw/raY84WwE/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-gornik-zabrze/tzEqbUGs/</t>
         </is>
       </c>
     </row>
@@ -11153,71 +11153,71 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>1.93</v>
+        <v>1.25</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.02</v>
+        <v>1.37</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>11/11/2023 12:23</t>
+          <t>11/11/2023 12:44</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.61</v>
+        <v>5.43</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.41</v>
+        <v>5.47</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>11/11/2023 12:23</t>
+          <t>11/11/2023 12:44</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.05</v>
+        <v>7.09</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>3.15</v>
+        <v>5.17</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>11/11/2023 12:23</t>
+          <t>11/11/2023 12:44</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-bytom-odrzanski/l0Hid8of/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-gwarek-tarnowskie-gory/vRRH2A8Q/</t>
         </is>
       </c>
     </row>
@@ -11245,71 +11245,71 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Slask Wroclaw II</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>1.25</v>
+        <v>3.41</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.37</v>
+        <v>3.3</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>11/11/2023 12:44</t>
+          <t>11/11/2023 12:17</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>5.43</v>
+        <v>3.87</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P118" t="n">
-        <v>5.47</v>
+        <v>3.74</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>11/11/2023 12:44</t>
+          <t>11/11/2023 12:17</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>7.09</v>
+        <v>1.75</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T118" t="n">
-        <v>5.17</v>
+        <v>1.87</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>11/11/2023 12:44</t>
+          <t>11/11/2023 12:17</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-gwarek-tarnowskie-gory/vRRH2A8Q/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-slask-wroclaw/raY84WwE/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>2.12</v>
+        <v>1.93</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,15 +11360,15 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.31</v>
+        <v>2.02</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 12:23</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.58</v>
+        <v>3.61</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.52</v>
+        <v>3.41</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 12:23</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,16 +11392,16 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.58</v>
+        <v>3.15</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 12:23</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-gornik-zabrze/tzEqbUGs/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-bytom-odrzanski/l0Hid8of/</t>
         </is>
       </c>
     </row>
@@ -11770,6 +11770,650 @@
       <c r="V123" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-unia-turza-slaska/nBNCvqKi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45248.45833333334</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Rakow II</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Zielona Gora</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>2</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>18/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>18/11/2023 10:47</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>18/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>18/11/2023 10:47</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>18/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>18/11/2023 10:44</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rks-rakow-czestochowa-zielona-gora/OIVZ8oVa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45248.5</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Bytom Odrzanski</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:12</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>4</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:12</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:04</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-starowice-dolne/xM94g6VC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45248.54166666666</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Gwarek Tarnowskie Gory</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>3</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Carina Gubin</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-carina-gubin/WKjeGTxQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45248.54166666666</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Polkowice</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Bielsko-Biala</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:54</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-rekord-bielsko-biala/l0wNBmos/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45248.5625</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze II</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Sleza Wroclaw</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>3</v>
+      </c>
+      <c r="J128" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>18/11/2023 08:15</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:34</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>18/11/2023 08:15</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-sleza-wroclaw/hUiiH9NJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45248.5625</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Pawlowice</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Stilon Gorzow</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>18/11/2023 03:21</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:34</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>18/11/2023 09:05</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-stilon-gorzow/pSWV9RFg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45248.57291666666</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw II</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>3</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Jelenia Gora</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>18/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:35</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>18/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:35</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>18/11/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>18/11/2023 13:35</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-karkonosze-jelenia-gora/23sRA70m/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V130"/>
+  <dimension ref="A1:V131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>3.95</v>
+        <v>1.88</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>4.67</v>
+        <v>2.25</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.77</v>
+        <v>3.52</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>4.04</v>
+        <v>3.2</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>1.58</v>
+        <v>3.26</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>06/10/2023 00:12</t>
+          <t>07/10/2023 01:43</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.55</v>
+        <v>2.88</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>07/10/2023 12:39</t>
+          <t>07/10/2023 12:06</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-rekord-bielsko-biala/8jeCBpj5/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-karkonosze-jelenia-gora/xQaGA45B/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Jelenia Gora</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
-        <v>1.88</v>
+        <v>3.95</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.25</v>
+        <v>4.67</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.52</v>
+        <v>3.77</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.2</v>
+        <v>4.04</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.26</v>
+        <v>1.58</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>07/10/2023 01:43</t>
+          <t>06/10/2023 00:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.88</v>
+        <v>1.55</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>07/10/2023 12:06</t>
+          <t>07/10/2023 12:39</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-karkonosze-jelenia-gora/xQaGA45B/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-rekord-bielsko-biala/8jeCBpj5/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>3.33</v>
+        <v>1.76</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>4.45</v>
+        <v>1.83</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>21/10/2023 12:56</t>
+          <t>21/10/2023 12:03</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.75</v>
+        <v>3.41</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>4.27</v>
+        <v>3.47</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>21/10/2023 12:56</t>
+          <t>21/10/2023 12:03</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>1.72</v>
+        <v>3.46</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1.54</v>
+        <v>3.67</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>21/10/2023 12:56</t>
+          <t>21/10/2023 12:03</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-sleza-wroclaw/tYMGw3Zc/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-carina-gubin/KOLKxNl4/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>1.76</v>
+        <v>3.33</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.83</v>
+        <v>4.45</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>21/10/2023 12:03</t>
+          <t>21/10/2023 12:56</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.41</v>
+        <v>3.75</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.47</v>
+        <v>4.27</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>21/10/2023 12:03</t>
+          <t>21/10/2023 12:56</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.46</v>
+        <v>1.72</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.67</v>
+        <v>1.54</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>21/10/2023 12:03</t>
+          <t>21/10/2023 12:56</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-carina-gubin/KOLKxNl4/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-sleza-wroclaw/tYMGw3Zc/</t>
         </is>
       </c>
     </row>
@@ -10325,71 +10325,71 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>2.41</v>
+        <v>2.6</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>04/11/2023 13:42</t>
+          <t>04/11/2023 13:10</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.17</v>
+        <v>3.37</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.16</v>
+        <v>3.42</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>04/11/2023 13:21</t>
+          <t>04/11/2023 13:10</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.4</v>
+        <v>2.31</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.87</v>
+        <v>2.72</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>04/11/2023 13:42</t>
+          <t>04/11/2023 13:10</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-carina-gubin/4lFu3J29/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-karkonosze-jelenia-gora/OxSDpBnr/</t>
         </is>
       </c>
     </row>
@@ -10417,71 +10417,71 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G109" t="n">
+        <v>3</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Rakow II</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>Jelenia Gora</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
       <c r="J109" t="n">
-        <v>2.6</v>
+        <v>1.93</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>04/11/2023 13:10</t>
+          <t>04/11/2023 13:06</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.37</v>
+        <v>3.53</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.42</v>
+        <v>3.78</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>04/11/2023 13:10</t>
+          <t>04/11/2023 13:06</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.31</v>
+        <v>2.87</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="T109" t="n">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>04/11/2023 13:10</t>
+          <t>04/11/2023 13:06</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-karkonosze-jelenia-gora/OxSDpBnr/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-rks-rakow-czestochowa/AgUPs9W0/</t>
         </is>
       </c>
     </row>
@@ -10509,7 +10509,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G110" t="n">
@@ -10517,14 +10517,14 @@
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Rakow II</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>1.93</v>
+        <v>1.59</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:06</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.53</v>
+        <v>3.85</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.78</v>
+        <v>4.07</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:06</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>2.87</v>
+        <v>3.83</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>3.25</v>
+        <v>4.49</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:06</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-rks-rakow-czestochowa/AgUPs9W0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-stilon-gorzow/xtWHqV1l/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Slask Wroclaw II</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I111" t="n">
         <v>2</v>
       </c>
       <c r="J111" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:09</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.85</v>
+        <v>3.96</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>4.07</v>
+        <v>3.99</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:09</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>3.83</v>
+        <v>4.1</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>4.49</v>
+        <v>3.9</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:09</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-stilon-gorzow/xtWHqV1l/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-zielona-gora/W2VLrkHf/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Slask Wroclaw II</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,14 +10701,14 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.53</v>
+        <v>2.41</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.67</v>
+        <v>2.27</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>04/11/2023 13:09</t>
+          <t>04/11/2023 13:42</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.96</v>
+        <v>3.17</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.99</v>
+        <v>3.16</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>04/11/2023 13:09</t>
+          <t>04/11/2023 13:21</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.9</v>
+        <v>2.87</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>04/11/2023 13:09</t>
+          <t>04/11/2023 13:42</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-zielona-gora/W2VLrkHf/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-carina-gubin/4lFu3J29/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,63 +11069,63 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.31</v>
+        <v>1.84</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 08:02</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.58</v>
+        <v>3.48</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.52</v>
+        <v>3.59</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 11:04</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.58</v>
+        <v>3.47</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 08:02</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-gornik-zabrze/tzEqbUGs/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-pniowek-pawlowice/UepRum1D/</t>
         </is>
       </c>
     </row>
@@ -11153,71 +11153,71 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117" t="n">
-        <v>1.25</v>
+        <v>1.93</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>1.37</v>
+        <v>2.02</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>11/11/2023 12:44</t>
+          <t>11/11/2023 12:23</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>5.43</v>
+        <v>3.61</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>5.47</v>
+        <v>3.41</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>11/11/2023 12:44</t>
+          <t>11/11/2023 12:23</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>7.09</v>
+        <v>3.05</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>5.17</v>
+        <v>3.15</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>11/11/2023 12:44</t>
+          <t>11/11/2023 12:23</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-gwarek-tarnowskie-gory/vRRH2A8Q/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-bytom-odrzanski/l0Hid8of/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.93</v>
+        <v>1.25</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.02</v>
+        <v>1.37</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>11/11/2023 12:23</t>
+          <t>11/11/2023 12:44</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.61</v>
+        <v>5.43</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.41</v>
+        <v>5.47</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>11/11/2023 12:23</t>
+          <t>11/11/2023 12:44</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>3.05</v>
+        <v>7.09</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>3.15</v>
+        <v>5.17</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>11/11/2023 12:23</t>
+          <t>11/11/2023 12:44</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-bytom-odrzanski/l0Hid8of/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-gwarek-tarnowskie-gory/vRRH2A8Q/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,63 +11437,63 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.84</v>
+        <v>2.31</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>11/11/2023 08:02</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.48</v>
+        <v>3.58</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.59</v>
+        <v>3.52</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>11/11/2023 11:04</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>3.47</v>
+        <v>2.58</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>11/11/2023 08:02</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-pniowek-pawlowice/UepRum1D/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-gornik-zabrze/tzEqbUGs/</t>
         </is>
       </c>
     </row>
@@ -12414,6 +12414,98 @@
       <c r="V130" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-karkonosze-jelenia-gora/23sRA70m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45254.70833333334</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Kluczbork</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Zielona Gora</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>24/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>24/11/2023 10:19</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>24/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>24/11/2023 15:03</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>24/11/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>24/11/2023 16:26</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-zielona-gora/Igpw85p6/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-iii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-iii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V131"/>
+  <dimension ref="A1:V138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="I25" t="n">
         <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.46</v>
+        <v>1.53</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>3.43</v>
+        <v>1.71</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>23/08/2023 16:52</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.57</v>
+        <v>4.29</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.64</v>
+        <v>4.53</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>23/08/2023 16:52</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>1.72</v>
+        <v>4.42</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>1.85</v>
+        <v>3.31</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>23/08/2023 16:52</t>
+          <t>23/08/2023 16:37</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-rekord-bielsko-biala/AHSku1hC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-starowice-dolne/txyZrqgm/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Kluczbork</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.71</v>
+        <v>2.36</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>4.29</v>
+        <v>3.38</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>4.53</v>
+        <v>3.09</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:56</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>4.42</v>
+        <v>3.18</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.31</v>
+        <v>2.8</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>23/08/2023 16:37</t>
+          <t>23/08/2023 16:57</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-starowice-dolne/txyZrqgm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kluczbork</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.36</v>
+        <v>2.2</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:57</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.38</v>
+        <v>3.29</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.09</v>
+        <v>3.3</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:56</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.18</v>
+        <v>3.06</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>23/08/2023 16:57</t>
+          <t>23/08/2023 16:06</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-warta-gorzow/W2oakoGJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-goczalkowice-zdroj/SYWUqPws/</t>
         </is>
       </c>
     </row>
@@ -2965,58 +2965,58 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.93</v>
+        <v>1.7</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.2</v>
+        <v>1.99</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
+          <t>23/08/2023 16:07</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>23/08/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
           <t>23/08/2023 16:06</t>
         </is>
       </c>
-      <c r="N28" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>22/08/2023 05:12</t>
-        </is>
-      </c>
-      <c r="P28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>23/08/2023 16:06</t>
-        </is>
-      </c>
       <c r="R28" t="n">
-        <v>3.06</v>
+        <v>3.7</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T28" t="n">
@@ -3024,12 +3024,12 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:07</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-goczalkowice-zdroj/SYWUqPws/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-bytom-odrzanski/Agp3l5VP/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>1.7</v>
+        <v>3.46</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.99</v>
+        <v>3.43</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:07</t>
+          <t>23/08/2023 16:52</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.77</v>
+        <v>3.57</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.93</v>
+        <v>3.64</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:06</t>
+          <t>23/08/2023 16:52</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.7</v>
+        <v>1.72</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.88</v>
+        <v>1.85</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 16:07</t>
+          <t>23/08/2023 16:52</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-bytom-odrzanski/Agp3l5VP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-rekord-bielsko-biala/AHSku1hC/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.54</v>
+        <v>1.58</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.31</v>
+        <v>1.71</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>09/09/2023 15:34</t>
+          <t>09/09/2023 15:56</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.14</v>
+        <v>3.95</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.25</v>
+        <v>3.98</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>09/09/2023 14:05</t>
+          <t>09/09/2023 15:56</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.74</v>
+        <v>3.7</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>09/09/2023 15:34</t>
+          <t>09/09/2023 15:55</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-polkowice/8lIo7AsM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-stilon-gorzow/jgXnn95d/</t>
         </is>
       </c>
     </row>
@@ -4805,22 +4805,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.58</v>
+        <v>2.54</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.71</v>
+        <v>2.31</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:56</t>
+          <t>09/09/2023 15:34</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>3.95</v>
+        <v>3.14</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>3.98</v>
+        <v>3.25</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:56</t>
+          <t>09/09/2023 14:05</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>3.7</v>
+        <v>2.74</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>09/09/2023 15:55</t>
+          <t>09/09/2023 15:34</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/sleza-wroclaw-stilon-gorzow/jgXnn95d/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-polkowice/8lIo7AsM/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Warta Gorzow</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>2.47</v>
+        <v>2.04</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.99</v>
+        <v>2.34</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>23/09/2023 13:36</t>
+          <t>23/09/2023 13:57</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.1</v>
+        <v>3.18</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.45</v>
+        <v>3.04</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>23/09/2023 13:36</t>
+          <t>23/09/2023 13:51</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.36</v>
+        <v>2.91</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.08</v>
+        <v>2.87</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>23/09/2023 13:36</t>
+          <t>23/09/2023 13:57</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-pniowek-pawlowice/QaqjZSQE/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-zielona-gora/bgi4BPY7/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Warta Gorzow</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>2.04</v>
+        <v>2.47</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.34</v>
+        <v>2.99</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>23/09/2023 13:57</t>
+          <t>23/09/2023 13:36</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.18</v>
+        <v>3.1</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,15 +6316,15 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.04</v>
+        <v>3.45</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>23/09/2023 13:51</t>
+          <t>23/09/2023 13:36</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.91</v>
+        <v>2.36</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.87</v>
+        <v>2.08</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>23/09/2023 13:57</t>
+          <t>23/09/2023 13:36</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-zielona-gora/bgi4BPY7/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-pniowek-pawlowice/QaqjZSQE/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>2.53</v>
+        <v>2.3</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.16</v>
+        <v>3.21</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.12</v>
+        <v>2.97</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:51</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-goczalkowice-zdroj/QTAoO2ID/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
         </is>
       </c>
     </row>
@@ -6829,22 +6829,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J70" t="n">
-        <v>1.91</v>
+        <v>2.43</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -6852,15 +6852,15 @@
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.72</v>
+        <v>2.47</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.45</v>
+        <v>3.32</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
@@ -6868,15 +6868,15 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.9</v>
+        <v>3.68</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>3</v>
+        <v>2.31</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -6884,16 +6884,16 @@
         </is>
       </c>
       <c r="T70" t="n">
-        <v>3.74</v>
+        <v>2.34</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>30/09/2023 15:07</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-gornik-zabrze/vD8ZQ4Yf/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>29/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>29/09/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>30/09/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
         <v>2.3</v>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>29/09/2023 03:12</t>
         </is>
       </c>
-      <c r="L71" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>29/09/2023 03:12</t>
-        </is>
-      </c>
-      <c r="P71" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>30/09/2023 15:51</t>
-        </is>
-      </c>
-      <c r="R71" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>29/09/2023 03:12</t>
-        </is>
-      </c>
       <c r="T71" t="n">
-        <v>2.97</v>
+        <v>2.12</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>30/09/2023 15:51</t>
+          <t>30/09/2023 15:58</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-bytom-odrzanski/nwCsPr37/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-goczalkowice-zdroj/QTAoO2ID/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
-        <v>2.43</v>
+        <v>1.91</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.47</v>
+        <v>1.72</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.32</v>
+        <v>3.45</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.68</v>
+        <v>3.9</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>2.31</v>
+        <v>3</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>2.34</v>
+        <v>3.74</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>30/09/2023 15:58</t>
+          <t>30/09/2023 15:07</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-sleza-wroclaw/z13aEn6n/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-gornik-zabrze/vD8ZQ4Yf/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Goczalkowice Zdroj</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Sleza Wroclaw</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>1.76</v>
+        <v>3.33</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.83</v>
+        <v>4.45</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>21/10/2023 12:03</t>
+          <t>21/10/2023 12:56</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.41</v>
+        <v>3.75</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.47</v>
+        <v>4.27</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>21/10/2023 12:03</t>
+          <t>21/10/2023 12:56</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.46</v>
+        <v>1.72</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>3.67</v>
+        <v>1.54</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>21/10/2023 12:03</t>
+          <t>21/10/2023 12:56</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-carina-gubin/KOLKxNl4/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-sleza-wroclaw/tYMGw3Zc/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Goczalkowice Zdroj</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Sleza Wroclaw</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>3.33</v>
+        <v>1.76</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>4.45</v>
+        <v>1.83</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>21/10/2023 12:56</t>
+          <t>21/10/2023 12:03</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.75</v>
+        <v>3.41</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>4.27</v>
+        <v>3.47</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>21/10/2023 12:56</t>
+          <t>21/10/2023 12:03</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>1.72</v>
+        <v>3.46</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>1.54</v>
+        <v>3.67</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>21/10/2023 12:56</t>
+          <t>21/10/2023 12:03</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/starowice-dolne-sleza-wroclaw/tYMGw3Zc/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/goczalkowice-zdroj-carina-gubin/KOLKxNl4/</t>
         </is>
       </c>
     </row>
@@ -8945,22 +8945,22 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>3.43</v>
+        <v>2.13</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.07</v>
+        <v>2.18</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:40</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.57</v>
+        <v>3.26</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:40</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>1.74</v>
+        <v>2.7</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>21/10/2023 14:58</t>
+          <t>21/10/2023 14:40</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-rekord-bielsko-biala/x0GPys4A/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-zielona-gora/OGIyZvlT/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,14 +9045,14 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Rakow II</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>2.13</v>
+        <v>1.76</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.18</v>
+        <v>1.48</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>21/10/2023 14:40</t>
+          <t>21/10/2023 14:51</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.26</v>
+        <v>3.58</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.47</v>
+        <v>4.28</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>21/10/2023 14:40</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.8</v>
+        <v>5.14</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>21/10/2023 14:40</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-zielona-gora/OGIyZvlT/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-rks-rakow-czestochowa/Uce4Ubdp/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rakow II</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J95" t="n">
-        <v>1.76</v>
+        <v>3.43</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.48</v>
+        <v>3.07</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>21/10/2023 14:51</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.58</v>
+        <v>3.57</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4.28</v>
+        <v>3.42</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.3</v>
+        <v>1.74</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>5.14</v>
+        <v>2.05</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:58</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-rks-rakow-czestochowa/Uce4Ubdp/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-rekord-bielsko-biala/x0GPys4A/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Starowice Dolne</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1.78</v>
+        <v>2.29</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.73</v>
+        <v>2.35</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>27/10/2023 16:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.57</v>
+        <v>3.3</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.69</v>
+        <v>3.25</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>28/10/2023 12:01</t>
+          <t>28/10/2023 13:02</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.28</v>
+        <v>2.46</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.84</v>
+        <v>2.68</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>27/10/2023 16:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-starowice-dolne/dYEosxtj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-gwarek-tarnowskie-gory/ADz3k0Y9/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,14 +9689,14 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Starowice Dolne</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.29</v>
+        <v>1.78</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.35</v>
+        <v>1.73</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>27/10/2023 16:55</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.3</v>
+        <v>3.57</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.25</v>
+        <v>3.69</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>28/10/2023 13:02</t>
+          <t>28/10/2023 12:01</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>2.46</v>
+        <v>3.28</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.68</v>
+        <v>3.84</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>27/10/2023 16:55</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/stilon-gorzow-gwarek-tarnowskie-gory/ADz3k0Y9/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-starowice-dolne/dYEosxtj/</t>
         </is>
       </c>
     </row>
@@ -10325,71 +10325,71 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="G108" t="n">
+        <v>3</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Rakow II</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>Jelenia Gora</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
-        <v>1</v>
-      </c>
       <c r="J108" t="n">
-        <v>2.6</v>
+        <v>1.93</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>04/11/2023 13:10</t>
+          <t>04/11/2023 13:06</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.37</v>
+        <v>3.53</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.42</v>
+        <v>3.78</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>04/11/2023 13:10</t>
+          <t>04/11/2023 13:06</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.31</v>
+        <v>2.87</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>03/11/2023 02:13</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>04/11/2023 13:10</t>
+          <t>04/11/2023 13:06</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-karkonosze-jelenia-gora/OxSDpBnr/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-rks-rakow-czestochowa/AgUPs9W0/</t>
         </is>
       </c>
     </row>
@@ -10417,7 +10417,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Polkowice</t>
         </is>
       </c>
       <c r="G109" t="n">
@@ -10425,14 +10425,14 @@
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Rakow II</t>
+          <t>Stilon Gorzow</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>1.93</v>
+        <v>1.59</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>04/11/2023 13:06</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.53</v>
+        <v>3.85</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.78</v>
+        <v>4.07</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>04/11/2023 13:06</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.87</v>
+        <v>3.83</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.25</v>
+        <v>4.49</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>04/11/2023 13:06</t>
+          <t>04/11/2023 13:52</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-rks-rakow-czestochowa/AgUPs9W0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-stilon-gorzow/xtWHqV1l/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Polkowice</t>
+          <t>Slask Wroclaw II</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Stilon Gorzow</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>2</v>
       </c>
       <c r="J110" t="n">
-        <v>1.59</v>
+        <v>1.53</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,15 +10532,15 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:09</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.85</v>
+        <v>3.96</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,15 +10548,15 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>4.07</v>
+        <v>3.99</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:09</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>3.83</v>
+        <v>4.1</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -10564,16 +10564,16 @@
         </is>
       </c>
       <c r="T110" t="n">
-        <v>4.49</v>
+        <v>3.9</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>04/11/2023 13:52</t>
+          <t>04/11/2023 13:09</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-stilon-gorzow/xtWHqV1l/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-zielona-gora/W2VLrkHf/</t>
         </is>
       </c>
     </row>
@@ -10601,71 +10601,71 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Slask Wroclaw II</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Jelenia Gora</t>
         </is>
       </c>
       <c r="I111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" t="n">
-        <v>1.53</v>
+        <v>2.6</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="L111" t="n">
-        <v>1.67</v>
+        <v>2.25</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:09</t>
+          <t>04/11/2023 13:10</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>3.96</v>
+        <v>3.37</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="P111" t="n">
-        <v>3.99</v>
+        <v>3.42</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:09</t>
+          <t>04/11/2023 13:10</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>4.1</v>
+        <v>2.31</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>03/11/2023 02:13</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="T111" t="n">
-        <v>3.9</v>
+        <v>2.72</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>04/11/2023 13:09</t>
+          <t>04/11/2023 13:10</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-zielona-gora/W2VLrkHf/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gwarek-tarnowskie-gory-karkonosze-jelenia-gora/OxSDpBnr/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Zielona Gora</t>
+          <t>Carina Gubin</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,63 +11069,63 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Pawlowice</t>
+          <t>Gornik Zabrze II</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.84</v>
+        <v>2.31</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>11/11/2023 08:02</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.48</v>
+        <v>3.58</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.59</v>
+        <v>3.52</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>11/11/2023 11:04</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>3.47</v>
+        <v>2.58</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>11/11/2023 08:02</t>
+          <t>11/11/2023 12:52</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-pniowek-pawlowice/UepRum1D/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-gornik-zabrze/tzEqbUGs/</t>
         </is>
       </c>
     </row>
@@ -11153,71 +11153,71 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Unia Turza Slaska</t>
+          <t>Bielsko-Biala</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Bytom Odrzanski</t>
+          <t>Gwarek Tarnowskie Gory</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>1.93</v>
+        <v>1.25</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.02</v>
+        <v>1.37</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>11/11/2023 12:23</t>
+          <t>11/11/2023 12:44</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.61</v>
+        <v>5.43</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.41</v>
+        <v>5.47</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>11/11/2023 12:23</t>
+          <t>11/11/2023 12:44</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.05</v>
+        <v>7.09</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T117" t="n">
-        <v>3.15</v>
+        <v>5.17</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>11/11/2023 12:23</t>
+          <t>11/11/2023 12:44</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-bytom-odrzanski/l0Hid8of/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-gwarek-tarnowskie-gory/vRRH2A8Q/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Bielsko-Biala</t>
+          <t>Unia Turza Slaska</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Gwarek Tarnowskie Gory</t>
+          <t>Bytom Odrzanski</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>1.25</v>
+        <v>1.93</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.37</v>
+        <v>2.02</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>11/11/2023 12:44</t>
+          <t>11/11/2023 12:23</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>5.43</v>
+        <v>3.61</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>5.47</v>
+        <v>3.41</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>11/11/2023 12:44</t>
+          <t>11/11/2023 12:23</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>7.09</v>
+        <v>3.05</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>5.17</v>
+        <v>3.15</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>11/11/2023 12:44</t>
+          <t>11/11/2023 12:23</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rekord-bielsko-biala-gwarek-tarnowskie-gory/vRRH2A8Q/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/unia-turza-slaska-bytom-odrzanski/l0Hid8of/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Carina Gubin</t>
+          <t>Zielona Gora</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,63 +11437,63 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Gornik Zabrze II</t>
+          <t>Pawlowice</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>2.31</v>
+        <v>1.84</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 08:02</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.58</v>
+        <v>3.48</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.52</v>
+        <v>3.59</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 11:04</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>2.58</v>
+        <v>3.47</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>11/11/2023 12:52</t>
+          <t>11/11/2023 08:02</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/carina-gubin-gornik-zabrze/tzEqbUGs/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/zielona-gora-pniowek-pawlowice/UepRum1D/</t>
         </is>
       </c>
     </row>
@@ -12506,6 +12506,650 @@
       <c r="V131" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/kluczbork-zielona-gora/Igpw85p6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45255.5</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Bytom Odrzanski</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Goczalkowice Zdroj</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/bytom-odrzanski-goczalkowice-zdroj/bD5CM4aa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45255.5</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Gornik Zabrze II</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>4</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Unia Turza Slaska</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:34</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>25/11/2023 10:01</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>25/11/2023 03:11</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/gornik-zabrze-unia-turza-slaska/Qa74OQUn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Polkowice</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>4</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Carina Gubin</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/polkowice-carina-gubin/6FQXTn7P/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Warta Gorzow</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>4</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Starowice Dolne</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>4</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:05</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:04</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>25/11/2023 05:05</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/warta-gorzow-starowice-dolne/4j68Nppg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45255.5625</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Pawlowice</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Jelenia Gora</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>3</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>25/11/2023 08:19</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:31</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:43</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>25/11/2023 08:19</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/pniowek-pawlowice-karkonosze-jelenia-gora/v9Yo6qFI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45256.45833333334</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Rakow II</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Stilon Gorzow</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>3</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>26/11/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>26/11/2023 10:46</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>26/11/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>26/11/2023 10:46</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>26/11/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>26/11/2023 10:46</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/rks-rakow-czestochowa-stilon-gorzow/dpqs7PaC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>iii-liga-group-iii</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45256.55208333334</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Slask Wroclaw II</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>3</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Bielsko-Biala</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:03</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-iii/slask-wroclaw-rekord-bielsko-biala/hCxj53UO/</t>
         </is>
       </c>
     </row>
